--- a/data/scheduling_DNN/predict/0.5/result17.xlsx
+++ b/data/scheduling_DNN/predict/0.5/result17.xlsx
@@ -570,10 +570,10 @@
         <v>1.278625011444092</v>
       </c>
       <c r="V2" t="n">
-        <v>0.8036208152770996</v>
+        <v>0.8731599450111389</v>
       </c>
       <c r="W2" t="n">
-        <v>0.225628986954689</v>
+        <v>0.1644019186496735</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -641,10 +641,10 @@
         <v>0.9315309524536133</v>
       </c>
       <c r="V3" t="n">
-        <v>0.4033866226673126</v>
+        <v>0.8702705502510071</v>
       </c>
       <c r="W3" t="n">
-        <v>0.2789364755153656</v>
+        <v>0.003752836957573891</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -712,10 +712,10 @@
         <v>0.8728039264678955</v>
       </c>
       <c r="V4" t="n">
-        <v>0.4662931859493256</v>
+        <v>0.5042939186096191</v>
       </c>
       <c r="W4" t="n">
-        <v>0.1652509868144989</v>
+        <v>0.1357996314764023</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -783,10 +783,10 @@
         <v>0.8783209323883057</v>
       </c>
       <c r="V5" t="n">
-        <v>0.6418135166168213</v>
+        <v>0.4996512830257416</v>
       </c>
       <c r="W5" t="n">
-        <v>0.05593575909733772</v>
+        <v>0.1433907002210617</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -854,10 +854,10 @@
         <v>0.9347138404846191</v>
       </c>
       <c r="V6" t="n">
-        <v>0.8000744581222534</v>
+        <v>0.3974917531013489</v>
       </c>
       <c r="W6" t="n">
-        <v>0.01812776364386082</v>
+        <v>0.2886075675487518</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -925,10 +925,10 @@
         <v>0.8745720386505127</v>
       </c>
       <c r="V7" t="n">
-        <v>0.7837048768997192</v>
+        <v>0.4123608469963074</v>
       </c>
       <c r="W7" t="n">
-        <v>0.008256841450929642</v>
+        <v>0.2136391848325729</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -996,10 +996,10 @@
         <v>0.8714470863342285</v>
       </c>
       <c r="V8" t="n">
-        <v>0.6971142292022705</v>
+        <v>0.5075802206993103</v>
       </c>
       <c r="W8" t="n">
-        <v>0.03039194457232952</v>
+        <v>0.1323990970849991</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1067,10 +1067,10 @@
         <v>0.8679490089416504</v>
       </c>
       <c r="V9" t="n">
-        <v>0.6904754638671875</v>
+        <v>0.5162272453308105</v>
       </c>
       <c r="W9" t="n">
-        <v>0.03149686008691788</v>
+        <v>0.1237081959843636</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1138,10 +1138,10 @@
         <v>0.9213850498199463</v>
       </c>
       <c r="V10" t="n">
-        <v>0.5373629331588745</v>
+        <v>0.5096985101699829</v>
       </c>
       <c r="W10" t="n">
-        <v>0.1474729925394058</v>
+        <v>0.1694858074188232</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1209,10 +1209,10 @@
         <v>0.8783540725708008</v>
       </c>
       <c r="V11" t="n">
-        <v>0.6983728408813477</v>
+        <v>0.4029629230499268</v>
       </c>
       <c r="W11" t="n">
-        <v>0.03239324316382408</v>
+        <v>0.2259967476129532</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1280,10 +1280,10 @@
         <v>0.8560359477996826</v>
       </c>
       <c r="V12" t="n">
-        <v>0.3755414187908173</v>
+        <v>0.5006071329116821</v>
       </c>
       <c r="W12" t="n">
-        <v>0.2308749854564667</v>
+        <v>0.1263296455144882</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1351,10 +1351,10 @@
         <v>0.8662741184234619</v>
       </c>
       <c r="V13" t="n">
-        <v>0.6528611183166504</v>
+        <v>0.4029494822025299</v>
       </c>
       <c r="W13" t="n">
-        <v>0.04554510861635208</v>
+        <v>0.2146697193384171</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1422,10 +1422,10 @@
         <v>0.9164319038391113</v>
       </c>
       <c r="V14" t="n">
-        <v>0.3800938129425049</v>
+        <v>0.872434675693512</v>
       </c>
       <c r="W14" t="n">
-        <v>0.2876585423946381</v>
+        <v>0.001935756066814065</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1493,10 +1493,10 @@
         <v>0.9046680927276611</v>
       </c>
       <c r="V15" t="n">
-        <v>0.4036073684692383</v>
+        <v>0.5159476399421692</v>
       </c>
       <c r="W15" t="n">
-        <v>0.2510618567466736</v>
+        <v>0.1511035859584808</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1564,10 +1564,10 @@
         <v>0.8792328834533691</v>
       </c>
       <c r="V16" t="n">
-        <v>0.5887774229049683</v>
+        <v>0.3973173499107361</v>
       </c>
       <c r="W16" t="n">
-        <v>0.08436437696218491</v>
+        <v>0.2322425842285156</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1635,10 +1635,10 @@
         <v>0.9291579723358154</v>
       </c>
       <c r="V17" t="n">
-        <v>0.5887578725814819</v>
+        <v>0.3974606096744537</v>
       </c>
       <c r="W17" t="n">
-        <v>0.1158722266554832</v>
+        <v>0.2827021181583405</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1706,10 +1706,10 @@
         <v>0.9192140102386475</v>
       </c>
       <c r="V18" t="n">
-        <v>0.8100709915161133</v>
+        <v>0.3973331451416016</v>
       </c>
       <c r="W18" t="n">
-        <v>0.01191219873726368</v>
+        <v>0.2723596394062042</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1777,10 +1777,10 @@
         <v>0.8607621192932129</v>
       </c>
       <c r="V19" t="n">
-        <v>0.4032863676548004</v>
+        <v>0.516185462474823</v>
       </c>
       <c r="W19" t="n">
-        <v>0.2092840671539307</v>
+        <v>0.1187330707907677</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1848,10 +1848,10 @@
         <v>0.9078121185302734</v>
       </c>
       <c r="V20" t="n">
-        <v>0.6429613828659058</v>
+        <v>0.5450762510299683</v>
       </c>
       <c r="W20" t="n">
-        <v>0.07014591246843338</v>
+        <v>0.1315773129463196</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -1919,10 +1919,10 @@
         <v>1.051532983779907</v>
       </c>
       <c r="V21" t="n">
-        <v>0.350454181432724</v>
+        <v>0.4231122732162476</v>
       </c>
       <c r="W21" t="n">
-        <v>0.4915114343166351</v>
+        <v>0.3949126005172729</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -1990,10 +1990,10 @@
         <v>0.6805069446563721</v>
       </c>
       <c r="V22" t="n">
-        <v>0.5040719509124756</v>
+        <v>0.8935574889183044</v>
       </c>
       <c r="W22" t="n">
-        <v>0.03112930618226528</v>
+        <v>0.045390535145998</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2061,10 +2061,10 @@
         <v>0.5418510437011719</v>
       </c>
       <c r="V23" t="n">
-        <v>0.5137119293212891</v>
+        <v>0.503993034362793</v>
       </c>
       <c r="W23" t="n">
-        <v>0.0007918097544461489</v>
+        <v>0.001433228841051459</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -2132,10 +2132,10 @@
         <v>0.5207180976867676</v>
       </c>
       <c r="V24" t="n">
-        <v>0.3811658322811127</v>
+        <v>0.8992849588394165</v>
       </c>
       <c r="W24" t="n">
-        <v>0.01947483420372009</v>
+        <v>0.1433128714561462</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -2203,10 +2203,10 @@
         <v>0.5262298583984375</v>
       </c>
       <c r="V25" t="n">
-        <v>0.5155050158500671</v>
+        <v>0.8609784245491028</v>
       </c>
       <c r="W25" t="n">
-        <v>0.0001150222451542504</v>
+        <v>0.1120566055178642</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -2274,10 +2274,10 @@
         <v>0.5306339263916016</v>
       </c>
       <c r="V26" t="n">
-        <v>0.6563405990600586</v>
+        <v>0.3977426290512085</v>
       </c>
       <c r="W26" t="n">
-        <v>0.01580216735601425</v>
+        <v>0.01766009628772736</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -2345,10 +2345,10 @@
         <v>0.5293750762939453</v>
       </c>
       <c r="V27" t="n">
-        <v>0.6434158086776733</v>
+        <v>0.8814038038253784</v>
       </c>
       <c r="W27" t="n">
-        <v>0.01300528831779957</v>
+        <v>0.1239242255687714</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -2416,10 +2416,10 @@
         <v>0.5149459838867188</v>
       </c>
       <c r="V28" t="n">
-        <v>0.6564396619796753</v>
+        <v>0.4033061265945435</v>
       </c>
       <c r="W28" t="n">
-        <v>0.02002046070992947</v>
+        <v>0.01246345788240433</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -2487,10 +2487,10 @@
         <v>0.5228018760681152</v>
       </c>
       <c r="V29" t="n">
-        <v>0.5413910150527954</v>
+        <v>0.3988934755325317</v>
       </c>
       <c r="W29" t="n">
-        <v>0.0003455560945440084</v>
+        <v>0.01535329129546881</v>
       </c>
     </row>
     <row r="30" spans="1:23">
@@ -2558,10 +2558,10 @@
         <v>0.5388278961181641</v>
       </c>
       <c r="V30" t="n">
-        <v>0.9478704929351807</v>
+        <v>0.8689647912979126</v>
       </c>
       <c r="W30" t="n">
-        <v>0.1673158407211304</v>
+        <v>0.1089903712272644</v>
       </c>
     </row>
     <row r="31" spans="1:23">
@@ -2629,10 +2629,10 @@
         <v>0.514962911605835</v>
       </c>
       <c r="V31" t="n">
-        <v>0.5137524604797363</v>
+        <v>0.8607228398323059</v>
       </c>
       <c r="W31" t="n">
-        <v>1.465191871830029e-06</v>
+        <v>0.1195499300956726</v>
       </c>
     </row>
     <row r="32" spans="1:23">
@@ -2700,10 +2700,10 @@
         <v>0.5909121036529541</v>
       </c>
       <c r="V32" t="n">
-        <v>0.6628100872039795</v>
+        <v>0.8886299729347229</v>
       </c>
       <c r="W32" t="n">
-        <v>0.005169319920241833</v>
+        <v>0.08863592892885208</v>
       </c>
     </row>
     <row r="33" spans="1:23">
@@ -2771,10 +2771,10 @@
         <v>0.51580810546875</v>
       </c>
       <c r="V33" t="n">
-        <v>0.6540950536727905</v>
+        <v>0.4131846725940704</v>
       </c>
       <c r="W33" t="n">
-        <v>0.01912328042089939</v>
+        <v>0.01053156889975071</v>
       </c>
     </row>
     <row r="34" spans="1:23">
@@ -2842,10 +2842,10 @@
         <v>0.5174050331115723</v>
       </c>
       <c r="V34" t="n">
-        <v>0.6825853586196899</v>
+        <v>0.8608415126800537</v>
       </c>
       <c r="W34" t="n">
-        <v>0.02728454023599625</v>
+        <v>0.1179486140608788</v>
       </c>
     </row>
     <row r="35" spans="1:23">
@@ -2913,10 +2913,10 @@
         <v>0.510145902633667</v>
       </c>
       <c r="V35" t="n">
-        <v>0.5145039558410645</v>
+        <v>0.5076009035110474</v>
       </c>
       <c r="W35" t="n">
-        <v>1.899262861115858e-05</v>
+        <v>6.477020633610664e-06</v>
       </c>
     </row>
     <row r="36" spans="1:23">
@@ -2984,10 +2984,10 @@
         <v>0.5142719745635986</v>
       </c>
       <c r="V36" t="n">
-        <v>0.5605940818786621</v>
+        <v>0.8725482225418091</v>
       </c>
       <c r="W36" t="n">
-        <v>0.002145737642422318</v>
+        <v>0.1283618658781052</v>
       </c>
     </row>
     <row r="37" spans="1:23">
@@ -3055,10 +3055,10 @@
         <v>0.5140159130096436</v>
       </c>
       <c r="V37" t="n">
-        <v>0.4484338760375977</v>
+        <v>0.8999591469764709</v>
       </c>
       <c r="W37" t="n">
-        <v>0.004301003646105528</v>
+        <v>0.1489521861076355</v>
       </c>
     </row>
     <row r="38" spans="1:23">
@@ -3126,10 +3126,10 @@
         <v>0.5164780616760254</v>
       </c>
       <c r="V38" t="n">
-        <v>0.5140922069549561</v>
+        <v>0.4024317860603333</v>
       </c>
       <c r="W38" t="n">
-        <v>5.69230269320542e-06</v>
+        <v>0.0130065530538559</v>
       </c>
     </row>
     <row r="39" spans="1:23">
@@ -3197,10 +3197,10 @@
         <v>0.5160830020904541</v>
       </c>
       <c r="V39" t="n">
-        <v>0.5344752669334412</v>
+        <v>0.5278559923171997</v>
       </c>
       <c r="W39" t="n">
-        <v>0.0003382753930054605</v>
+        <v>0.0001386032963637263</v>
       </c>
     </row>
     <row r="40" spans="1:23">
@@ -3268,10 +3268,10 @@
         <v>0.5140771865844727</v>
       </c>
       <c r="V40" t="n">
-        <v>0.3524310886859894</v>
+        <v>0.8737443089485168</v>
       </c>
       <c r="W40" t="n">
-        <v>0.02612946182489395</v>
+        <v>0.1293604373931885</v>
       </c>
     </row>
     <row r="41" spans="1:23">
@@ -3339,10 +3339,10 @@
         <v>0.5185961723327637</v>
       </c>
       <c r="V41" t="n">
-        <v>0.7835088968276978</v>
+        <v>0.4180353581905365</v>
       </c>
       <c r="W41" t="n">
-        <v>0.07017875462770462</v>
+        <v>0.01011247746646404</v>
       </c>
     </row>
     <row r="42" spans="1:23">
@@ -3410,10 +3410,10 @@
         <v>0.404655933380127</v>
       </c>
       <c r="V42" t="n">
-        <v>0.4776301085948944</v>
+        <v>0.8714119791984558</v>
       </c>
       <c r="W42" t="n">
-        <v>0.005325230304151773</v>
+        <v>0.2178612053394318</v>
       </c>
     </row>
     <row r="43" spans="1:23">
@@ -3481,10 +3481,10 @@
         <v>0.4719488620758057</v>
       </c>
       <c r="V43" t="n">
-        <v>0.4036560952663422</v>
+        <v>0.8663411736488342</v>
       </c>
       <c r="W43" t="n">
-        <v>0.004663901869207621</v>
+        <v>0.1555452942848206</v>
       </c>
     </row>
     <row r="44" spans="1:23">
@@ -3552,10 +3552,10 @@
         <v>0.3866188526153564</v>
       </c>
       <c r="V44" t="n">
-        <v>0.5041899085044861</v>
+        <v>0.8689467906951904</v>
       </c>
       <c r="W44" t="n">
-        <v>0.01382295321673155</v>
+        <v>0.2326402366161346</v>
       </c>
     </row>
     <row r="45" spans="1:23">
@@ -3623,10 +3623,10 @@
         <v>0.3858962059020996</v>
       </c>
       <c r="V45" t="n">
-        <v>0.5043676495552063</v>
+        <v>0.9006673097610474</v>
       </c>
       <c r="W45" t="n">
-        <v>0.01403548289090395</v>
+        <v>0.2649892866611481</v>
       </c>
     </row>
     <row r="46" spans="1:23">
@@ -3694,10 +3694,10 @@
         <v>0.3848860263824463</v>
       </c>
       <c r="V46" t="n">
-        <v>0.5760998725891113</v>
+        <v>0.4238294363021851</v>
       </c>
       <c r="W46" t="n">
-        <v>0.0365627333521843</v>
+        <v>0.001516589196398854</v>
       </c>
     </row>
     <row r="47" spans="1:23">
@@ -3765,10 +3765,10 @@
         <v>0.3969569206237793</v>
       </c>
       <c r="V47" t="n">
-        <v>0.3507807850837708</v>
+        <v>0.3972986340522766</v>
       </c>
       <c r="W47" t="n">
-        <v>0.002132235560566187</v>
+        <v>1.167680636626756e-07</v>
       </c>
     </row>
     <row r="48" spans="1:23">
@@ -3836,10 +3836,10 @@
         <v>0.4113471508026123</v>
       </c>
       <c r="V48" t="n">
-        <v>0.5413792133331299</v>
+        <v>0.4997553825378418</v>
       </c>
       <c r="W48" t="n">
-        <v>0.01690833643078804</v>
+        <v>0.007816015742719173</v>
       </c>
     </row>
     <row r="49" spans="1:23">
@@ -3907,10 +3907,10 @@
         <v>0.4282140731811523</v>
       </c>
       <c r="V49" t="n">
-        <v>0.5144341588020325</v>
+        <v>0.3988884389400482</v>
       </c>
       <c r="W49" t="n">
-        <v>0.007433902937918901</v>
+        <v>0.0008599928114563227</v>
       </c>
     </row>
     <row r="50" spans="1:23">
@@ -3978,10 +3978,10 @@
         <v>0.3858199119567871</v>
       </c>
       <c r="V50" t="n">
-        <v>0.5279086828231812</v>
+        <v>0.8954673409461975</v>
       </c>
       <c r="W50" t="n">
-        <v>0.02018921822309494</v>
+        <v>0.2597405016422272</v>
       </c>
     </row>
     <row r="51" spans="1:23">
@@ -4049,10 +4049,10 @@
         <v>0.3868610858917236</v>
       </c>
       <c r="V51" t="n">
-        <v>0.8001948595046997</v>
+        <v>0.8953503966331482</v>
       </c>
       <c r="W51" t="n">
-        <v>0.1708448082208633</v>
+        <v>0.258561372756958</v>
       </c>
     </row>
     <row r="52" spans="1:23">
@@ -4120,10 +4120,10 @@
         <v>0.3860290050506592</v>
       </c>
       <c r="V52" t="n">
-        <v>0.65655517578125</v>
+        <v>0.8741577863693237</v>
       </c>
       <c r="W52" t="n">
-        <v>0.07318440824747086</v>
+        <v>0.2382697016000748</v>
       </c>
     </row>
     <row r="53" spans="1:23">
@@ -4191,10 +4191,10 @@
         <v>0.3862721920013428</v>
       </c>
       <c r="V53" t="n">
-        <v>0.5018356442451477</v>
+        <v>0.8662762045860291</v>
       </c>
       <c r="W53" t="n">
-        <v>0.01335491146892309</v>
+        <v>0.2304038554430008</v>
       </c>
     </row>
     <row r="54" spans="1:23">
@@ -4262,10 +4262,10 @@
         <v>0.3878300189971924</v>
       </c>
       <c r="V54" t="n">
-        <v>0.5028307437896729</v>
+        <v>0.5065509080886841</v>
       </c>
       <c r="W54" t="n">
-        <v>0.01322516705840826</v>
+        <v>0.01409464981406927</v>
       </c>
     </row>
     <row r="55" spans="1:23">
@@ -4333,10 +4333,10 @@
         <v>0.3859210014343262</v>
       </c>
       <c r="V55" t="n">
-        <v>0.5279320478439331</v>
+        <v>0.8676939010620117</v>
       </c>
       <c r="W55" t="n">
-        <v>0.02016713656485081</v>
+        <v>0.2321051210165024</v>
       </c>
     </row>
     <row r="56" spans="1:23">
@@ -4404,10 +4404,10 @@
         <v>0.409235954284668</v>
       </c>
       <c r="V56" t="n">
-        <v>0.4035847187042236</v>
+        <v>0.3972926139831543</v>
       </c>
       <c r="W56" t="n">
-        <v>3.193646261934191e-05</v>
+        <v>0.0001426433736924082</v>
       </c>
     </row>
     <row r="57" spans="1:23">
@@ -4475,10 +4475,10 @@
         <v>0.3863928318023682</v>
       </c>
       <c r="V57" t="n">
-        <v>0.5768920183181763</v>
+        <v>0.5402064323425293</v>
       </c>
       <c r="W57" t="n">
-        <v>0.03628994151949883</v>
+        <v>0.02365862391889095</v>
       </c>
     </row>
     <row r="58" spans="1:23">
@@ -4546,10 +4546,10 @@
         <v>0.3872580528259277</v>
       </c>
       <c r="V58" t="n">
-        <v>0.654965877532959</v>
+        <v>0.4970891177654266</v>
       </c>
       <c r="W58" t="n">
-        <v>0.07166747748851776</v>
+        <v>0.01206286251544952</v>
       </c>
     </row>
     <row r="59" spans="1:23">
@@ -4617,10 +4617,10 @@
         <v>0.3912420272827148</v>
       </c>
       <c r="V59" t="n">
-        <v>0.54131019115448</v>
+        <v>0.8672502636909485</v>
       </c>
       <c r="W59" t="n">
-        <v>0.02252045460045338</v>
+        <v>0.2265838384628296</v>
       </c>
     </row>
     <row r="60" spans="1:23">
@@ -4688,10 +4688,10 @@
         <v>0.3889451026916504</v>
       </c>
       <c r="V60" t="n">
-        <v>0.8088934421539307</v>
+        <v>0.4008356928825378</v>
       </c>
       <c r="W60" t="n">
-        <v>0.1763566136360168</v>
+        <v>0.000141386131872423</v>
       </c>
     </row>
     <row r="61" spans="1:23">
@@ -4759,10 +4759,10 @@
         <v>0.3869929313659668</v>
       </c>
       <c r="V61" t="n">
-        <v>0.5316058397293091</v>
+        <v>0.4999355375766754</v>
       </c>
       <c r="W61" t="n">
-        <v>0.02091289311647415</v>
+        <v>0.01275603193789721</v>
       </c>
     </row>
     <row r="62" spans="1:23">
@@ -4830,10 +4830,10 @@
         <v>0.9583940505981445</v>
       </c>
       <c r="V62" t="n">
-        <v>0.9441746473312378</v>
+        <v>0.857785165309906</v>
       </c>
       <c r="W62" t="n">
-        <v>0.0002021914260694757</v>
+        <v>0.01012214738875628</v>
       </c>
     </row>
     <row r="63" spans="1:23">
@@ -4901,10 +4901,10 @@
         <v>0.9060430526733398</v>
       </c>
       <c r="V63" t="n">
-        <v>0.4033569991588593</v>
+        <v>0.5402516722679138</v>
       </c>
       <c r="W63" t="n">
-        <v>0.252693235874176</v>
+        <v>0.1338033378124237</v>
       </c>
     </row>
     <row r="64" spans="1:23">
@@ -4972,10 +4972,10 @@
         <v>0.8759150505065918</v>
       </c>
       <c r="V64" t="n">
-        <v>0.3711240291595459</v>
+        <v>0.8998451828956604</v>
       </c>
       <c r="W64" t="n">
-        <v>0.2548139691352844</v>
+        <v>0.000572651217225939</v>
       </c>
     </row>
     <row r="65" spans="1:23">
@@ -5043,10 +5043,10 @@
         <v>0.8710899353027344</v>
       </c>
       <c r="V65" t="n">
-        <v>0.5885483026504517</v>
+        <v>0.5162765979766846</v>
       </c>
       <c r="W65" t="n">
-        <v>0.07982977479696274</v>
+        <v>0.1258925050497055</v>
       </c>
     </row>
     <row r="66" spans="1:23">
@@ -5114,10 +5114,10 @@
         <v>0.882378101348877</v>
       </c>
       <c r="V66" t="n">
-        <v>0.4035950005054474</v>
+        <v>0.8674318790435791</v>
       </c>
       <c r="W66" t="n">
-        <v>0.2292332649230957</v>
+        <v>0.0002233895647805184</v>
       </c>
     </row>
     <row r="67" spans="1:23">
@@ -5185,10 +5185,10 @@
         <v>0.8734641075134277</v>
       </c>
       <c r="V67" t="n">
-        <v>0.5038816928863525</v>
+        <v>0.503402054309845</v>
       </c>
       <c r="W67" t="n">
-        <v>0.1365911662578583</v>
+        <v>0.1369459182024002</v>
       </c>
     </row>
     <row r="68" spans="1:23">
@@ -5256,10 +5256,10 @@
         <v>0.8694069385528564</v>
       </c>
       <c r="V68" t="n">
-        <v>0.8070424795150757</v>
+        <v>0.5154004693031311</v>
       </c>
       <c r="W68" t="n">
-        <v>0.003889325773343444</v>
+        <v>0.1253205835819244</v>
       </c>
     </row>
     <row r="69" spans="1:23">
@@ -5327,10 +5327,10 @@
         <v>0.863152027130127</v>
       </c>
       <c r="V69" t="n">
-        <v>0.9424769878387451</v>
+        <v>0.5162131786346436</v>
       </c>
       <c r="W69" t="n">
-        <v>0.006292449310421944</v>
+        <v>0.1203665658831596</v>
       </c>
     </row>
     <row r="70" spans="1:23">
@@ -5398,10 +5398,10 @@
         <v>0.8647668361663818</v>
       </c>
       <c r="V70" t="n">
-        <v>0.8073692321777344</v>
+        <v>0.4981940984725952</v>
       </c>
       <c r="W70" t="n">
-        <v>0.003294484922662377</v>
+        <v>0.1343755722045898</v>
       </c>
     </row>
     <row r="71" spans="1:23">
@@ -5469,10 +5469,10 @@
         <v>0.8711988925933838</v>
       </c>
       <c r="V71" t="n">
-        <v>0.5138214826583862</v>
+        <v>0.5155693292617798</v>
       </c>
       <c r="W71" t="n">
-        <v>0.1277186125516891</v>
+        <v>0.1264723837375641</v>
       </c>
     </row>
     <row r="72" spans="1:23">
@@ -5540,10 +5540,10 @@
         <v>0.8940391540527344</v>
       </c>
       <c r="V72" t="n">
-        <v>0.5413764715194702</v>
+        <v>0.5160927772521973</v>
       </c>
       <c r="W72" t="n">
-        <v>0.1243709698319435</v>
+        <v>0.1428434699773788</v>
       </c>
     </row>
     <row r="73" spans="1:23">
@@ -5611,10 +5611,10 @@
         <v>0.865178108215332</v>
       </c>
       <c r="V73" t="n">
-        <v>0.9439630508422852</v>
+        <v>0.4982610642910004</v>
       </c>
       <c r="W73" t="n">
-        <v>0.006207067053765059</v>
+        <v>0.1346281170845032</v>
       </c>
     </row>
     <row r="74" spans="1:23">
@@ -5682,10 +5682,10 @@
         <v>0.8620350360870361</v>
       </c>
       <c r="V74" t="n">
-        <v>0.4484788775444031</v>
+        <v>0.4020885527133942</v>
       </c>
       <c r="W74" t="n">
-        <v>0.1710287034511566</v>
+        <v>0.211550772190094</v>
       </c>
     </row>
     <row r="75" spans="1:23">
@@ -5753,10 +5753,10 @@
         <v>0.8610241413116455</v>
       </c>
       <c r="V75" t="n">
-        <v>0.5137795209884644</v>
+        <v>0.8710466027259827</v>
       </c>
       <c r="W75" t="n">
-        <v>0.1205788254737854</v>
+        <v>0.0001004497316898778</v>
       </c>
     </row>
     <row r="76" spans="1:23">
@@ -5824,10 +5824,10 @@
         <v>0.8656890392303467</v>
       </c>
       <c r="V76" t="n">
-        <v>0.7840772867202759</v>
+        <v>0.5160616636276245</v>
       </c>
       <c r="W76" t="n">
-        <v>0.006660478189587593</v>
+        <v>0.1222392991185188</v>
       </c>
     </row>
     <row r="77" spans="1:23">
@@ -5895,10 +5895,10 @@
         <v>0.8706119060516357</v>
       </c>
       <c r="V77" t="n">
-        <v>0.4505327641963959</v>
+        <v>0.5162328481674194</v>
       </c>
       <c r="W77" t="n">
-        <v>0.1764664798974991</v>
+        <v>0.1255845129489899</v>
       </c>
     </row>
     <row r="78" spans="1:23">
@@ -5966,10 +5966,10 @@
         <v>0.8628010749816895</v>
       </c>
       <c r="V78" t="n">
-        <v>0.7831968069076538</v>
+        <v>0.3972891867160797</v>
       </c>
       <c r="W78" t="n">
-        <v>0.006336839403957129</v>
+        <v>0.2167013138532639</v>
       </c>
     </row>
     <row r="79" spans="1:23">
@@ -6037,10 +6037,10 @@
         <v>0.8727540969848633</v>
       </c>
       <c r="V79" t="n">
-        <v>0.3753827512264252</v>
+        <v>0.5009793043136597</v>
       </c>
       <c r="W79" t="n">
-        <v>0.2473782598972321</v>
+        <v>0.138216495513916</v>
       </c>
     </row>
     <row r="80" spans="1:23">
@@ -6108,10 +6108,10 @@
         <v>0.8489360809326172</v>
       </c>
       <c r="V80" t="n">
-        <v>0.5138216018676758</v>
+        <v>0.8729800581932068</v>
       </c>
       <c r="W80" t="n">
-        <v>0.1123017147183418</v>
+        <v>0.0005781128420494497</v>
       </c>
     </row>
     <row r="81" spans="1:23">
@@ -6179,10 +6179,10 @@
         <v>0.857429027557373</v>
       </c>
       <c r="V81" t="n">
-        <v>0.6824849843978882</v>
+        <v>0.89984130859375</v>
       </c>
       <c r="W81" t="n">
-        <v>0.03060541860759258</v>
+        <v>0.001798801589757204</v>
       </c>
     </row>
     <row r="82" spans="1:23">
@@ -6250,10 +6250,10 @@
         <v>0.5475618839263916</v>
       </c>
       <c r="V82" t="n">
-        <v>0.8140085935592651</v>
+        <v>0.4032557308673859</v>
       </c>
       <c r="W82" t="n">
-        <v>0.07099384814500809</v>
+        <v>0.02082426659762859</v>
       </c>
     </row>
     <row r="83" spans="1:23">
@@ -6321,10 +6321,10 @@
         <v>0.5223798751831055</v>
       </c>
       <c r="V83" t="n">
-        <v>0.3507762253284454</v>
+        <v>0.8590522408485413</v>
       </c>
       <c r="W83" t="n">
-        <v>0.02944781258702278</v>
+        <v>0.1133482828736305</v>
       </c>
     </row>
     <row r="84" spans="1:23">
@@ -6392,10 +6392,10 @@
         <v>0.5158839225769043</v>
       </c>
       <c r="V84" t="n">
-        <v>0.5342543721199036</v>
+        <v>0.4990777373313904</v>
       </c>
       <c r="W84" t="n">
-        <v>0.0003374734078533947</v>
+        <v>0.0002824478724505752</v>
       </c>
     </row>
     <row r="85" spans="1:23">
@@ -6463,10 +6463,10 @@
         <v>0.5178000926971436</v>
       </c>
       <c r="V85" t="n">
-        <v>0.9462730884552002</v>
+        <v>0.4973282217979431</v>
       </c>
       <c r="W85" t="n">
-        <v>0.1835891008377075</v>
+        <v>0.0004190974868834019</v>
       </c>
     </row>
     <row r="86" spans="1:23">
@@ -6534,10 +6534,10 @@
         <v>0.5120930671691895</v>
       </c>
       <c r="V86" t="n">
-        <v>0.4036531448364258</v>
+        <v>0.397304356098175</v>
       </c>
       <c r="W86" t="n">
-        <v>0.01175921689718962</v>
+        <v>0.01317644864320755</v>
       </c>
     </row>
     <row r="87" spans="1:23">
@@ -6605,10 +6605,10 @@
         <v>0.5679559707641602</v>
       </c>
       <c r="V87" t="n">
-        <v>0.5145879983901978</v>
+        <v>0.8728678822517395</v>
       </c>
       <c r="W87" t="n">
-        <v>0.002848140429705381</v>
+        <v>0.09297127276659012</v>
       </c>
     </row>
     <row r="88" spans="1:23">
@@ -6676,10 +6676,10 @@
         <v>0.517035961151123</v>
       </c>
       <c r="V88" t="n">
-        <v>0.3706989288330078</v>
+        <v>0.8712754249572754</v>
       </c>
       <c r="W88" t="n">
-        <v>0.02141452766954899</v>
+        <v>0.1254855990409851</v>
       </c>
     </row>
     <row r="89" spans="1:23">
@@ -6747,10 +6747,10 @@
         <v>0.5192339420318604</v>
       </c>
       <c r="V89" t="n">
-        <v>0.6720939874649048</v>
+        <v>0.8862922191619873</v>
       </c>
       <c r="W89" t="n">
-        <v>0.02336619421839714</v>
+        <v>0.1347317844629288</v>
       </c>
     </row>
     <row r="90" spans="1:23">
@@ -6818,10 +6818,10 @@
         <v>0.5150690078735352</v>
       </c>
       <c r="V90" t="n">
-        <v>0.7828766107559204</v>
+        <v>0.5162183046340942</v>
       </c>
       <c r="W90" t="n">
-        <v>0.0717209130525589</v>
+        <v>1.320883029620745e-06</v>
       </c>
     </row>
     <row r="91" spans="1:23">
@@ -6889,10 +6889,10 @@
         <v>0.5213170051574707</v>
       </c>
       <c r="V91" t="n">
-        <v>0.6547068357467651</v>
+        <v>0.868113100528717</v>
       </c>
       <c r="W91" t="n">
-        <v>0.01779284700751305</v>
+        <v>0.1202675327658653</v>
       </c>
     </row>
     <row r="92" spans="1:23">
@@ -6960,10 +6960,10 @@
         <v>0.5186920166015625</v>
       </c>
       <c r="V92" t="n">
-        <v>0.5413097143173218</v>
+        <v>0.4104896485805511</v>
       </c>
       <c r="W92" t="n">
-        <v>0.000511560239829123</v>
+        <v>0.01170775201171637</v>
       </c>
     </row>
     <row r="93" spans="1:23">
@@ -7031,10 +7031,10 @@
         <v>0.5181910991668701</v>
       </c>
       <c r="V93" t="n">
-        <v>0.4998745322227478</v>
+        <v>0.5015789270401001</v>
       </c>
       <c r="W93" t="n">
-        <v>0.0003354966174811125</v>
+        <v>0.0002759642666205764</v>
       </c>
     </row>
     <row r="94" spans="1:23">
@@ -7102,10 +7102,10 @@
         <v>0.5129578113555908</v>
       </c>
       <c r="V94" t="n">
-        <v>0.5607798099517822</v>
+        <v>0.3973063230514526</v>
       </c>
       <c r="W94" t="n">
-        <v>0.002286943607032299</v>
+        <v>0.01337526645511389</v>
       </c>
     </row>
     <row r="95" spans="1:23">
@@ -7173,10 +7173,10 @@
         <v>0.5182981491088867</v>
       </c>
       <c r="V95" t="n">
-        <v>0.672245979309082</v>
+        <v>0.8723592758178711</v>
       </c>
       <c r="W95" t="n">
-        <v>0.0236999336630106</v>
+        <v>0.1253592818975449</v>
       </c>
     </row>
     <row r="96" spans="1:23">
@@ -7244,10 +7244,10 @@
         <v>0.5157368183135986</v>
       </c>
       <c r="V96" t="n">
-        <v>0.5413761734962463</v>
+        <v>0.5162646770477295</v>
       </c>
       <c r="W96" t="n">
-        <v>0.0006573765422217548</v>
+        <v>2.786348431982333e-07</v>
       </c>
     </row>
     <row r="97" spans="1:23">
@@ -7315,10 +7315,10 @@
         <v>0.517038106918335</v>
       </c>
       <c r="V97" t="n">
-        <v>0.4033632874488831</v>
+        <v>0.401481032371521</v>
       </c>
       <c r="W97" t="n">
-        <v>0.01292196474969387</v>
+        <v>0.01335343718528748</v>
       </c>
     </row>
     <row r="98" spans="1:23">
@@ -7386,10 +7386,10 @@
         <v>0.5660309791564941</v>
       </c>
       <c r="V98" t="n">
-        <v>0.8160734176635742</v>
+        <v>0.8917494416236877</v>
       </c>
       <c r="W98" t="n">
-        <v>0.06252121925354004</v>
+        <v>0.1060925200581551</v>
       </c>
     </row>
     <row r="99" spans="1:23">
@@ -7457,10 +7457,10 @@
         <v>0.5193438529968262</v>
       </c>
       <c r="V99" t="n">
-        <v>0.3507833182811737</v>
+        <v>0.8627486824989319</v>
       </c>
       <c r="W99" t="n">
-        <v>0.02841265313327312</v>
+        <v>0.1179268732666969</v>
       </c>
     </row>
     <row r="100" spans="1:23">
@@ -7528,10 +7528,10 @@
         <v>0.5185110569000244</v>
       </c>
       <c r="V100" t="n">
-        <v>0.6548136472702026</v>
+        <v>0.4127168357372284</v>
       </c>
       <c r="W100" t="n">
-        <v>0.01857839524745941</v>
+        <v>0.01119241677224636</v>
       </c>
     </row>
     <row r="101" spans="1:23">
@@ -7599,10 +7599,10 @@
         <v>0.5145349502563477</v>
       </c>
       <c r="V101" t="n">
-        <v>0.5030796527862549</v>
+        <v>0.3972916007041931</v>
       </c>
       <c r="W101" t="n">
-        <v>0.0001312238455284387</v>
+        <v>0.01374600268900394</v>
       </c>
     </row>
     <row r="102" spans="1:23">
@@ -7670,10 +7670,10 @@
         <v>0.3960089683532715</v>
       </c>
       <c r="V102" t="n">
-        <v>0.5401060581207275</v>
+        <v>0.3992799520492554</v>
       </c>
       <c r="W102" t="n">
-        <v>0.02076397091150284</v>
+        <v>1.06993347799289e-05</v>
       </c>
     </row>
     <row r="103" spans="1:23">
@@ -7741,10 +7741,10 @@
         <v>0.3945181369781494</v>
       </c>
       <c r="V103" t="n">
-        <v>0.6426665782928467</v>
+        <v>0.5162361860275269</v>
       </c>
       <c r="W103" t="n">
-        <v>0.06157764792442322</v>
+        <v>0.01481528300791979</v>
       </c>
     </row>
     <row r="104" spans="1:23">
@@ -7812,10 +7812,10 @@
         <v>0.4094679355621338</v>
       </c>
       <c r="V104" t="n">
-        <v>0.3810720145702362</v>
+        <v>0.8758384585380554</v>
       </c>
       <c r="W104" t="n">
-        <v>0.0008063283166848123</v>
+        <v>0.2175014615058899</v>
       </c>
     </row>
     <row r="105" spans="1:23">
@@ -7883,10 +7883,10 @@
         <v>0.402616024017334</v>
       </c>
       <c r="V105" t="n">
-        <v>0.5411652326583862</v>
+        <v>0.5162098407745361</v>
       </c>
       <c r="W105" t="n">
-        <v>0.01919588260352612</v>
+        <v>0.01290355529636145</v>
       </c>
     </row>
     <row r="106" spans="1:23">
@@ -7954,10 +7954,10 @@
         <v>0.3881978988647461</v>
       </c>
       <c r="V106" t="n">
-        <v>0.8079757690429688</v>
+        <v>0.4124007523059845</v>
       </c>
       <c r="W106" t="n">
-        <v>0.1762134581804276</v>
+        <v>0.0005857780924998224</v>
       </c>
     </row>
     <row r="107" spans="1:23">
@@ -8025,10 +8025,10 @@
         <v>0.3875870704650879</v>
       </c>
       <c r="V107" t="n">
-        <v>0.6418609619140625</v>
+        <v>0.5168924331665039</v>
       </c>
       <c r="W107" t="n">
-        <v>0.06465521454811096</v>
+        <v>0.01671987771987915</v>
       </c>
     </row>
     <row r="108" spans="1:23">
@@ -8096,10 +8096,10 @@
         <v>0.3868029117584229</v>
       </c>
       <c r="V108" t="n">
-        <v>0.656647801399231</v>
+        <v>0.4946113228797913</v>
       </c>
       <c r="W108" t="n">
-        <v>0.07281626760959625</v>
+        <v>0.01162265334278345</v>
       </c>
     </row>
     <row r="109" spans="1:23">
@@ -8167,10 +8167,10 @@
         <v>0.3858330249786377</v>
       </c>
       <c r="V109" t="n">
-        <v>0.9476672410964966</v>
+        <v>0.5014724135398865</v>
       </c>
       <c r="W109" t="n">
-        <v>0.3156576752662659</v>
+        <v>0.01337246783077717</v>
       </c>
     </row>
     <row r="110" spans="1:23">
@@ -8238,10 +8238,10 @@
         <v>0.4380300045013428</v>
       </c>
       <c r="V110" t="n">
-        <v>0.466268926858902</v>
+        <v>0.4986751973628998</v>
       </c>
       <c r="W110" t="n">
-        <v>0.0007974367472343147</v>
+        <v>0.003677839413285255</v>
       </c>
     </row>
     <row r="111" spans="1:23">
@@ -8309,10 +8309,10 @@
         <v>0.3926200866699219</v>
       </c>
       <c r="V111" t="n">
-        <v>0.5015835762023926</v>
+        <v>0.8570957779884338</v>
       </c>
       <c r="W111" t="n">
-        <v>0.01187304221093655</v>
+        <v>0.2157376706600189</v>
       </c>
     </row>
     <row r="112" spans="1:23">
@@ -8380,10 +8380,10 @@
         <v>0.4199950695037842</v>
       </c>
       <c r="V112" t="n">
-        <v>0.6548312902450562</v>
+        <v>0.8667128682136536</v>
       </c>
       <c r="W112" t="n">
-        <v>0.05514805018901825</v>
+        <v>0.1995567977428436</v>
       </c>
     </row>
     <row r="113" spans="1:23">
@@ -8451,10 +8451,10 @@
         <v>0.3880131244659424</v>
       </c>
       <c r="V113" t="n">
-        <v>0.5609912872314453</v>
+        <v>0.8860461711883545</v>
       </c>
       <c r="W113" t="n">
-        <v>0.02992144413292408</v>
+        <v>0.2480369210243225</v>
       </c>
     </row>
     <row r="114" spans="1:23">
@@ -8522,10 +8522,10 @@
         <v>0.3906128406524658</v>
       </c>
       <c r="V114" t="n">
-        <v>0.9424417018890381</v>
+        <v>0.887674868106842</v>
       </c>
       <c r="W114" t="n">
-        <v>0.3045150935649872</v>
+        <v>0.2470706552267075</v>
       </c>
     </row>
     <row r="115" spans="1:23">
@@ -8593,10 +8593,10 @@
         <v>0.390388011932373</v>
       </c>
       <c r="V115" t="n">
-        <v>0.5416277647018433</v>
+        <v>0.3972635865211487</v>
       </c>
       <c r="W115" t="n">
-        <v>0.02287346310913563</v>
+        <v>4.72735264338553e-05</v>
       </c>
     </row>
     <row r="116" spans="1:23">
@@ -8664,10 +8664,10 @@
         <v>0.4383928775787354</v>
       </c>
       <c r="V116" t="n">
-        <v>0.9425735473632812</v>
+        <v>0.5034828186035156</v>
       </c>
       <c r="W116" t="n">
-        <v>0.2541981339454651</v>
+        <v>0.004236700478941202</v>
       </c>
     </row>
     <row r="117" spans="1:23">
@@ -8735,10 +8735,10 @@
         <v>0.3909389972686768</v>
       </c>
       <c r="V117" t="n">
-        <v>0.9514546394348145</v>
+        <v>0.397328108549118</v>
       </c>
       <c r="W117" t="n">
-        <v>0.3141777813434601</v>
+        <v>4.082074156031013e-05</v>
       </c>
     </row>
     <row r="118" spans="1:23">
@@ -8806,10 +8806,10 @@
         <v>0.4151778221130371</v>
       </c>
       <c r="V118" t="n">
-        <v>0.6981637477874756</v>
+        <v>0.397318422794342</v>
       </c>
       <c r="W118" t="n">
-        <v>0.0800810307264328</v>
+        <v>0.0003189581329934299</v>
       </c>
     </row>
     <row r="119" spans="1:23">
@@ -8877,10 +8877,10 @@
         <v>0.3895719051361084</v>
       </c>
       <c r="V119" t="n">
-        <v>0.3796856999397278</v>
+        <v>0.8651727437973022</v>
       </c>
       <c r="W119" t="n">
-        <v>9.773705096449703e-05</v>
+        <v>0.2261961549520493</v>
       </c>
     </row>
     <row r="120" spans="1:23">
@@ -8948,10 +8948,10 @@
         <v>0.3895649909973145</v>
       </c>
       <c r="V120" t="n">
-        <v>0.4033709764480591</v>
+        <v>0.5093459486961365</v>
       </c>
       <c r="W120" t="n">
-        <v>0.0001906052348203957</v>
+        <v>0.01434747781604528</v>
       </c>
     </row>
     <row r="121" spans="1:23">
@@ -9019,10 +9019,10 @@
         <v>0.390326976776123</v>
       </c>
       <c r="V121" t="n">
-        <v>0.8158285617828369</v>
+        <v>0.403583437204361</v>
       </c>
       <c r="W121" t="n">
-        <v>0.1810515969991684</v>
+        <v>0.0001757337449816987</v>
       </c>
     </row>
     <row r="122" spans="1:23">
@@ -9090,10 +9090,10 @@
         <v>0.9526019096374512</v>
       </c>
       <c r="V122" t="n">
-        <v>0.3507856726646423</v>
+        <v>0.5065194368362427</v>
       </c>
       <c r="W122" t="n">
-        <v>0.3621827960014343</v>
+        <v>0.1989895701408386</v>
       </c>
     </row>
     <row r="123" spans="1:23">
@@ -9161,10 +9161,10 @@
         <v>0.9093990325927734</v>
       </c>
       <c r="V123" t="n">
-        <v>0.6825319528579712</v>
+        <v>0.4019790291786194</v>
       </c>
       <c r="W123" t="n">
-        <v>0.05146867036819458</v>
+        <v>0.2574750483036041</v>
       </c>
     </row>
     <row r="124" spans="1:23">
@@ -9232,10 +9232,10 @@
         <v>0.8593389987945557</v>
       </c>
       <c r="V124" t="n">
-        <v>0.5324540138244629</v>
+        <v>0.514499306678772</v>
       </c>
       <c r="W124" t="n">
-        <v>0.1068537905812263</v>
+        <v>0.1189144104719162</v>
       </c>
     </row>
     <row r="125" spans="1:23">
@@ -9303,10 +9303,10 @@
         <v>0.8695569038391113</v>
       </c>
       <c r="V125" t="n">
-        <v>0.4036197066307068</v>
+        <v>0.8746286034584045</v>
       </c>
       <c r="W125" t="n">
-        <v>0.2170974761247635</v>
+        <v>2.572213634266518e-05</v>
       </c>
     </row>
     <row r="126" spans="1:23">
@@ -9374,10 +9374,10 @@
         <v>0.9181571006774902</v>
       </c>
       <c r="V126" t="n">
-        <v>0.6568711996078491</v>
+        <v>0.8734976053237915</v>
       </c>
       <c r="W126" t="n">
-        <v>0.06827032566070557</v>
+        <v>0.001994470600038767</v>
       </c>
     </row>
     <row r="127" spans="1:23">
@@ -9445,10 +9445,10 @@
         <v>0.8750870227813721</v>
       </c>
       <c r="V127" t="n">
-        <v>0.5017967224121094</v>
+        <v>0.4996449947357178</v>
       </c>
       <c r="W127" t="n">
-        <v>0.139345645904541</v>
+        <v>0.1409567147493362</v>
       </c>
     </row>
     <row r="128" spans="1:23">
@@ -9516,10 +9516,10 @@
         <v>0.8594310283660889</v>
       </c>
       <c r="V128" t="n">
-        <v>0.5043106079101562</v>
+        <v>0.4941394329071045</v>
       </c>
       <c r="W128" t="n">
-        <v>0.1261105090379715</v>
+        <v>0.1334379464387894</v>
       </c>
     </row>
     <row r="129" spans="1:23">
@@ -9587,10 +9587,10 @@
         <v>0.8594059944152832</v>
       </c>
       <c r="V129" t="n">
-        <v>0.5042273998260498</v>
+        <v>0.4020490050315857</v>
       </c>
       <c r="W129" t="n">
-        <v>0.126151829957962</v>
+        <v>0.2091754227876663</v>
       </c>
     </row>
     <row r="130" spans="1:23">
@@ -9658,10 +9658,10 @@
         <v>0.9248340129852295</v>
       </c>
       <c r="V130" t="n">
-        <v>0.9462680816650391</v>
+        <v>0.8891701102256775</v>
       </c>
       <c r="W130" t="n">
-        <v>0.0004594193014781922</v>
+        <v>0.001271913992241025</v>
       </c>
     </row>
     <row r="131" spans="1:23">
@@ -9729,10 +9729,10 @@
         <v>0.8627960681915283</v>
       </c>
       <c r="V131" t="n">
-        <v>0.4035879671573639</v>
+        <v>0.4007655382156372</v>
       </c>
       <c r="W131" t="n">
-        <v>0.210872083902359</v>
+        <v>0.2134722173213959</v>
       </c>
     </row>
     <row r="132" spans="1:23">
@@ -9800,10 +9800,10 @@
         <v>0.8653979301452637</v>
       </c>
       <c r="V132" t="n">
-        <v>0.6975404024124146</v>
+        <v>0.8704257607460022</v>
       </c>
       <c r="W132" t="n">
-        <v>0.02817614935338497</v>
+        <v>2.527908145566471e-05</v>
       </c>
     </row>
     <row r="133" spans="1:23">
@@ -9871,10 +9871,10 @@
         <v>0.8747179508209229</v>
       </c>
       <c r="V133" t="n">
-        <v>0.4484035670757294</v>
+        <v>0.8666117191314697</v>
       </c>
       <c r="W133" t="n">
-        <v>0.1817439496517181</v>
+        <v>6.571099220309407e-05</v>
       </c>
     </row>
     <row r="134" spans="1:23">
@@ -9942,10 +9942,10 @@
         <v>0.9119360446929932</v>
       </c>
       <c r="V134" t="n">
-        <v>0.8119772672653198</v>
+        <v>0.5004965662956238</v>
       </c>
       <c r="W134" t="n">
-        <v>0.009991757571697235</v>
+        <v>0.1692824512720108</v>
       </c>
     </row>
     <row r="135" spans="1:23">
@@ -10013,10 +10013,10 @@
         <v>0.8794970512390137</v>
       </c>
       <c r="V135" t="n">
-        <v>0.4035981297492981</v>
+        <v>0.4113581478595734</v>
       </c>
       <c r="W135" t="n">
-        <v>0.226479783654213</v>
+        <v>0.21915403008461</v>
       </c>
     </row>
     <row r="136" spans="1:23">
@@ -10084,10 +10084,10 @@
         <v>0.8631889820098877</v>
       </c>
       <c r="V136" t="n">
-        <v>0.5057560205459595</v>
+        <v>0.866113007068634</v>
       </c>
       <c r="W136" t="n">
-        <v>0.1277583241462708</v>
+        <v>8.549922313250136e-06</v>
       </c>
     </row>
     <row r="137" spans="1:23">
@@ -10155,10 +10155,10 @@
         <v>0.859199047088623</v>
       </c>
       <c r="V137" t="n">
-        <v>0.6567997932434082</v>
+        <v>0.4246827661991119</v>
       </c>
       <c r="W137" t="n">
-        <v>0.04096545651555061</v>
+        <v>0.1888044029474258</v>
       </c>
     </row>
     <row r="138" spans="1:23">
@@ -10226,10 +10226,10 @@
         <v>0.9220519065856934</v>
       </c>
       <c r="V138" t="n">
-        <v>0.3507842719554901</v>
+        <v>0.8687373995780945</v>
       </c>
       <c r="W138" t="n">
-        <v>0.3263466656208038</v>
+        <v>0.002842436544597149</v>
       </c>
     </row>
     <row r="139" spans="1:23">
@@ -10297,10 +10297,10 @@
         <v>0.8635120391845703</v>
       </c>
       <c r="V139" t="n">
-        <v>0.4778375327587128</v>
+        <v>0.4104602336883545</v>
       </c>
       <c r="W139" t="n">
-        <v>0.1487448215484619</v>
+        <v>0.2052559405565262</v>
       </c>
     </row>
     <row r="140" spans="1:23">
@@ -10368,10 +10368,10 @@
         <v>0.9157559871673584</v>
       </c>
       <c r="V140" t="n">
-        <v>0.6548517942428589</v>
+        <v>0.4936242997646332</v>
       </c>
       <c r="W140" t="n">
-        <v>0.06807100027799606</v>
+        <v>0.1781951636075974</v>
       </c>
     </row>
     <row r="141" spans="1:23">
@@ -10439,10 +10439,10 @@
         <v>0.8579831123352051</v>
       </c>
       <c r="V141" t="n">
-        <v>0.3507703840732574</v>
+        <v>0.4976246356964111</v>
       </c>
       <c r="W141" t="n">
-        <v>0.2572647929191589</v>
+        <v>0.1298582255840302</v>
       </c>
     </row>
     <row r="142" spans="1:23">
@@ -10510,10 +10510,10 @@
         <v>0.5923888683319092</v>
       </c>
       <c r="V142" t="n">
-        <v>0.6720672845840454</v>
+        <v>0.8677777647972107</v>
       </c>
       <c r="W142" t="n">
-        <v>0.006348649971187115</v>
+        <v>0.07583904266357422</v>
       </c>
     </row>
     <row r="143" spans="1:23">
@@ -10581,10 +10581,10 @@
         <v>0.5218830108642578</v>
       </c>
       <c r="V143" t="n">
-        <v>0.534324586391449</v>
+        <v>0.4979321956634521</v>
       </c>
       <c r="W143" t="n">
-        <v>0.0001547927968204021</v>
+        <v>0.0005736415623687208</v>
       </c>
     </row>
     <row r="144" spans="1:23">
@@ -10652,10 +10652,10 @@
         <v>0.5184571743011475</v>
       </c>
       <c r="V144" t="n">
-        <v>0.6617556810379028</v>
+        <v>0.8721216917037964</v>
       </c>
       <c r="W144" t="n">
-        <v>0.02053446136415005</v>
+        <v>0.1250785887241364</v>
       </c>
     </row>
     <row r="145" spans="1:23">
@@ -10723,10 +10723,10 @@
         <v>0.5126571655273438</v>
       </c>
       <c r="V145" t="n">
-        <v>0.654166579246521</v>
+        <v>0.4980959296226501</v>
       </c>
       <c r="W145" t="n">
-        <v>0.02002491429448128</v>
+        <v>0.0002120295976055786</v>
       </c>
     </row>
     <row r="146" spans="1:23">
@@ -10794,10 +10794,10 @@
         <v>0.5166079998016357</v>
       </c>
       <c r="V146" t="n">
-        <v>0.4036735594272614</v>
+        <v>0.8778372406959534</v>
       </c>
       <c r="W146" t="n">
-        <v>0.01275418791919947</v>
+        <v>0.1304865628480911</v>
       </c>
     </row>
     <row r="147" spans="1:23">
@@ -10865,10 +10865,10 @@
         <v>0.5250978469848633</v>
       </c>
       <c r="V147" t="n">
-        <v>0.4662267863750458</v>
+        <v>0.4245558977127075</v>
       </c>
       <c r="W147" t="n">
-        <v>0.003465801710262895</v>
+        <v>0.01010868325829506</v>
       </c>
     </row>
     <row r="148" spans="1:23">
@@ -10936,10 +10936,10 @@
         <v>0.5211939811706543</v>
       </c>
       <c r="V148" t="n">
-        <v>0.3507773280143738</v>
+        <v>0.4028812348842621</v>
       </c>
       <c r="W148" t="n">
-        <v>0.02904183603823185</v>
+        <v>0.01399790588766336</v>
       </c>
     </row>
     <row r="149" spans="1:23">
@@ -11007,10 +11007,10 @@
         <v>0.5191619396209717</v>
       </c>
       <c r="V149" t="n">
-        <v>0.5298932790756226</v>
+        <v>0.401970773935318</v>
       </c>
       <c r="W149" t="n">
-        <v>0.0001151616452261806</v>
+        <v>0.01373376976698637</v>
       </c>
     </row>
     <row r="150" spans="1:23">
@@ -11078,10 +11078,10 @@
         <v>0.5213170051574707</v>
       </c>
       <c r="V150" t="n">
-        <v>0.5154380798339844</v>
+        <v>0.8908354043960571</v>
       </c>
       <c r="W150" t="n">
-        <v>3.456176273175515e-05</v>
+        <v>0.1365438401699066</v>
       </c>
     </row>
     <row r="151" spans="1:23">
@@ -11149,10 +11149,10 @@
         <v>0.5128638744354248</v>
       </c>
       <c r="V151" t="n">
-        <v>0.5885621309280396</v>
+        <v>0.5034447312355042</v>
       </c>
       <c r="W151" t="n">
-        <v>0.005730226170271635</v>
+        <v>8.872025500750169e-05</v>
       </c>
     </row>
     <row r="152" spans="1:23">
@@ -11220,10 +11220,10 @@
         <v>0.5150089263916016</v>
       </c>
       <c r="V152" t="n">
-        <v>0.531548023223877</v>
+        <v>0.4993561506271362</v>
       </c>
       <c r="W152" t="n">
-        <v>0.0002735417219810188</v>
+        <v>0.000245009403442964</v>
       </c>
     </row>
     <row r="153" spans="1:23">
@@ -11291,10 +11291,10 @@
         <v>0.5721690654754639</v>
       </c>
       <c r="V153" t="n">
-        <v>0.5371879935264587</v>
+        <v>0.4135485887527466</v>
       </c>
       <c r="W153" t="n">
-        <v>0.001223675440996885</v>
+        <v>0.02516045607626438</v>
       </c>
     </row>
     <row r="154" spans="1:23">
@@ -11362,10 +11362,10 @@
         <v>0.5184500217437744</v>
       </c>
       <c r="V154" t="n">
-        <v>0.6825956106185913</v>
+        <v>0.4008471071720123</v>
       </c>
       <c r="W154" t="n">
-        <v>0.02694377489387989</v>
+        <v>0.01383044570684433</v>
       </c>
     </row>
     <row r="155" spans="1:23">
@@ -11433,10 +11433,10 @@
         <v>0.5217239856719971</v>
       </c>
       <c r="V155" t="n">
-        <v>0.6425178050994873</v>
+        <v>0.8750655055046082</v>
       </c>
       <c r="W155" t="n">
-        <v>0.01459114719182253</v>
+        <v>0.1248502284288406</v>
       </c>
     </row>
     <row r="156" spans="1:23">
@@ -11504,10 +11504,10 @@
         <v>0.5196211338043213</v>
       </c>
       <c r="V156" t="n">
-        <v>0.504324197769165</v>
+        <v>0.8620796799659729</v>
       </c>
       <c r="W156" t="n">
-        <v>0.0002339962520636618</v>
+        <v>0.1172778531908989</v>
       </c>
     </row>
     <row r="157" spans="1:23">
@@ -11575,10 +11575,10 @@
         <v>0.5197439193725586</v>
       </c>
       <c r="V157" t="n">
-        <v>0.9461758136749268</v>
+        <v>0.5028684139251709</v>
       </c>
       <c r="W157" t="n">
-        <v>0.1818441599607468</v>
+        <v>0.0002847826981451362</v>
       </c>
     </row>
     <row r="158" spans="1:23">
@@ -11646,10 +11646,10 @@
         <v>0.5163350105285645</v>
       </c>
       <c r="V158" t="n">
-        <v>0.7828408479690552</v>
+        <v>0.5029203295707703</v>
       </c>
       <c r="W158" t="n">
-        <v>0.07102536410093307</v>
+        <v>0.000179953669430688</v>
       </c>
     </row>
     <row r="159" spans="1:23">
@@ -11717,10 +11717,10 @@
         <v>0.5179429054260254</v>
       </c>
       <c r="V159" t="n">
-        <v>0.4036053717136383</v>
+        <v>0.402772843837738</v>
       </c>
       <c r="W159" t="n">
-        <v>0.01307307183742523</v>
+        <v>0.01326414290815592</v>
       </c>
     </row>
     <row r="160" spans="1:23">
@@ -11788,10 +11788,10 @@
         <v>0.5239419937133789</v>
       </c>
       <c r="V160" t="n">
-        <v>0.3503713309764862</v>
+        <v>0.3988466262817383</v>
       </c>
       <c r="W160" t="n">
-        <v>0.0301267746835947</v>
+        <v>0.0156488511711359</v>
       </c>
     </row>
     <row r="161" spans="1:23">
@@ -11859,10 +11859,10 @@
         <v>0.5159420967102051</v>
       </c>
       <c r="V161" t="n">
-        <v>0.5049394369125366</v>
+        <v>0.4031448662281036</v>
       </c>
       <c r="W161" t="n">
-        <v>0.0001210585251101293</v>
+        <v>0.01272321492433548</v>
       </c>
     </row>
     <row r="162" spans="1:23">
@@ -11930,10 +11930,10 @@
         <v>0.3954710960388184</v>
       </c>
       <c r="V162" t="n">
-        <v>0.6420689821243286</v>
+        <v>0.4031438231468201</v>
       </c>
       <c r="W162" t="n">
-        <v>0.06081051751971245</v>
+        <v>5.887074075872079e-05</v>
       </c>
     </row>
     <row r="163" spans="1:23">
@@ -12001,10 +12001,10 @@
         <v>0.3907070159912109</v>
       </c>
       <c r="V163" t="n">
-        <v>0.5277000665664673</v>
+        <v>0.5006948113441467</v>
       </c>
       <c r="W163" t="n">
-        <v>0.0187670961022377</v>
+        <v>0.01209731493145227</v>
       </c>
     </row>
     <row r="164" spans="1:23">
@@ -12072,10 +12072,10 @@
         <v>0.4388830661773682</v>
       </c>
       <c r="V164" t="n">
-        <v>0.3808989822864532</v>
+        <v>0.4946520328521729</v>
       </c>
       <c r="W164" t="n">
-        <v>0.003362153889611363</v>
+        <v>0.003110177582129836</v>
       </c>
     </row>
     <row r="165" spans="1:23">
@@ -12143,10 +12143,10 @@
         <v>0.3931200504302979</v>
       </c>
       <c r="V165" t="n">
-        <v>0.3874495327472687</v>
+        <v>0.4978136122226715</v>
       </c>
       <c r="W165" t="n">
-        <v>3.215477045159787e-05</v>
+        <v>0.01096074189990759</v>
       </c>
     </row>
     <row r="166" spans="1:23">
@@ -12214,10 +12214,10 @@
         <v>0.3911409378051758</v>
       </c>
       <c r="V166" t="n">
-        <v>0.5370340347290039</v>
+        <v>0.5039557218551636</v>
       </c>
       <c r="W166" t="n">
-        <v>0.0212847962975502</v>
+        <v>0.01272717583924532</v>
       </c>
     </row>
     <row r="167" spans="1:23">
@@ -12285,10 +12285,10 @@
         <v>0.3930919170379639</v>
       </c>
       <c r="V167" t="n">
-        <v>0.9515811204910278</v>
+        <v>0.5007016658782959</v>
       </c>
       <c r="W167" t="n">
-        <v>0.3119101822376251</v>
+        <v>0.0115798581391573</v>
       </c>
     </row>
     <row r="168" spans="1:23">
@@ -12356,10 +12356,10 @@
         <v>0.3961279392242432</v>
       </c>
       <c r="V168" t="n">
-        <v>0.5344407558441162</v>
+        <v>0.397300124168396</v>
       </c>
       <c r="W168" t="n">
-        <v>0.01913043484091759</v>
+        <v>1.374017529087723e-06</v>
       </c>
     </row>
     <row r="169" spans="1:23">
@@ -12427,10 +12427,10 @@
         <v>0.3914148807525635</v>
       </c>
       <c r="V169" t="n">
-        <v>0.4035888314247131</v>
+        <v>0.4984359741210938</v>
       </c>
       <c r="W169" t="n">
-        <v>0.0001482050720369443</v>
+        <v>0.01145351398736238</v>
       </c>
     </row>
     <row r="170" spans="1:23">
@@ -12498,10 +12498,10 @@
         <v>0.3975849151611328</v>
       </c>
       <c r="V170" t="n">
-        <v>0.6528067588806152</v>
+        <v>0.8651787042617798</v>
       </c>
       <c r="W170" t="n">
-        <v>0.06513819098472595</v>
+        <v>0.2186439484357834</v>
       </c>
     </row>
     <row r="171" spans="1:23">
@@ -12569,10 +12569,10 @@
         <v>0.3904650211334229</v>
       </c>
       <c r="V171" t="n">
-        <v>0.5322068929672241</v>
+        <v>0.4143312275409698</v>
       </c>
       <c r="W171" t="n">
-        <v>0.02009075880050659</v>
+        <v>0.0005695957806892693</v>
       </c>
     </row>
     <row r="172" spans="1:23">
@@ -12640,10 +12640,10 @@
         <v>0.3915770053863525</v>
       </c>
       <c r="V172" t="n">
-        <v>0.3507837355136871</v>
+        <v>0.397270679473877</v>
       </c>
       <c r="W172" t="n">
-        <v>0.001664090901613235</v>
+        <v>3.241792364860885e-05</v>
       </c>
     </row>
     <row r="173" spans="1:23">
@@ -12711,10 +12711,10 @@
         <v>0.3938140869140625</v>
       </c>
       <c r="V173" t="n">
-        <v>0.350296825170517</v>
+        <v>0.4028379917144775</v>
       </c>
       <c r="W173" t="n">
-        <v>0.001893752021715045</v>
+        <v>8.143085869960487e-05</v>
       </c>
     </row>
     <row r="174" spans="1:23">
@@ -12782,10 +12782,10 @@
         <v>0.3942358493804932</v>
       </c>
       <c r="V174" t="n">
-        <v>0.5005732774734497</v>
+        <v>0.8667758107185364</v>
       </c>
       <c r="W174" t="n">
-        <v>0.01130764838308096</v>
+        <v>0.2232940196990967</v>
       </c>
     </row>
     <row r="175" spans="1:23">
@@ -12853,10 +12853,10 @@
         <v>0.3874709606170654</v>
       </c>
       <c r="V175" t="n">
-        <v>0.9424210786819458</v>
+        <v>0.4100156426429749</v>
       </c>
       <c r="W175" t="n">
-        <v>0.3079696297645569</v>
+        <v>0.0005082626594230533</v>
       </c>
     </row>
     <row r="176" spans="1:23">
@@ -12924,10 +12924,10 @@
         <v>0.3920910358428955</v>
       </c>
       <c r="V176" t="n">
-        <v>0.3810511529445648</v>
+        <v>0.505858302116394</v>
       </c>
       <c r="W176" t="n">
-        <v>0.0001218790130224079</v>
+        <v>0.01294299121946096</v>
       </c>
     </row>
     <row r="177" spans="1:23">
@@ -12995,10 +12995,10 @@
         <v>0.4573519229888916</v>
       </c>
       <c r="V177" t="n">
-        <v>0.5032491683959961</v>
+        <v>0.4028018712997437</v>
       </c>
       <c r="W177" t="n">
-        <v>0.002106557134538889</v>
+        <v>0.002975708106532693</v>
       </c>
     </row>
     <row r="178" spans="1:23">
@@ -13066,10 +13066,10 @@
         <v>0.3923280239105225</v>
       </c>
       <c r="V178" t="n">
-        <v>0.5138845443725586</v>
+        <v>0.5097988247871399</v>
       </c>
       <c r="W178" t="n">
-        <v>0.01477598771452904</v>
+        <v>0.01379938889294863</v>
       </c>
     </row>
     <row r="179" spans="1:23">
@@ -13137,10 +13137,10 @@
         <v>0.3946781158447266</v>
       </c>
       <c r="V179" t="n">
-        <v>0.6446640491485596</v>
+        <v>0.3992882072925568</v>
       </c>
       <c r="W179" t="n">
-        <v>0.0624929666519165</v>
+        <v>2.125294304278214e-05</v>
       </c>
     </row>
     <row r="180" spans="1:23">
@@ -13208,10 +13208,10 @@
         <v>0.3937029838562012</v>
       </c>
       <c r="V180" t="n">
-        <v>0.4506654441356659</v>
+        <v>0.8651242256164551</v>
       </c>
       <c r="W180" t="n">
-        <v>0.003244721796363592</v>
+        <v>0.2222379893064499</v>
       </c>
     </row>
     <row r="181" spans="1:23">
@@ -13279,10 +13279,10 @@
         <v>0.4113798141479492</v>
       </c>
       <c r="V181" t="n">
-        <v>0.5371123552322388</v>
+        <v>0.3974839746952057</v>
       </c>
       <c r="W181" t="n">
-        <v>0.01580867171287537</v>
+        <v>0.0001930943544721231</v>
       </c>
     </row>
     <row r="182" spans="1:23">
@@ -13350,10 +13350,10 @@
         <v>0.8773300647735596</v>
       </c>
       <c r="V182" t="n">
-        <v>0.4992532730102539</v>
+        <v>0.8746765851974487</v>
       </c>
       <c r="W182" t="n">
-        <v>0.1429420560598373</v>
+        <v>7.04095373293967e-06</v>
       </c>
     </row>
     <row r="183" spans="1:23">
@@ -13421,10 +13421,10 @@
         <v>0.9169509410858154</v>
       </c>
       <c r="V183" t="n">
-        <v>0.5139825344085693</v>
+        <v>0.8725709319114685</v>
       </c>
       <c r="W183" t="n">
-        <v>0.1623835414648056</v>
+        <v>0.001969585195183754</v>
       </c>
     </row>
     <row r="184" spans="1:23">
@@ -13492,10 +13492,10 @@
         <v>0.8726620674133301</v>
       </c>
       <c r="V184" t="n">
-        <v>0.7832762002944946</v>
+        <v>0.4974557459354401</v>
       </c>
       <c r="W184" t="n">
-        <v>0.007989833131432533</v>
+        <v>0.1407797783613205</v>
       </c>
     </row>
     <row r="185" spans="1:23">
@@ -13563,10 +13563,10 @@
         <v>0.8765661716461182</v>
       </c>
       <c r="V185" t="n">
-        <v>0.672019362449646</v>
+        <v>0.5074878334999084</v>
       </c>
       <c r="W185" t="n">
-        <v>0.04183939844369888</v>
+        <v>0.1362188160419464</v>
       </c>
     </row>
     <row r="186" spans="1:23">
@@ -13634,10 +13634,10 @@
         <v>0.8574149608612061</v>
       </c>
       <c r="V186" t="n">
-        <v>0.8059033155441284</v>
+        <v>0.4031211137771606</v>
       </c>
       <c r="W186" t="n">
-        <v>0.002653449540957808</v>
+        <v>0.2063829004764557</v>
       </c>
     </row>
     <row r="187" spans="1:23">
@@ -13705,10 +13705,10 @@
         <v>0.8837149143218994</v>
       </c>
       <c r="V187" t="n">
-        <v>0.4780525863170624</v>
+        <v>0.397322803735733</v>
       </c>
       <c r="W187" t="n">
-        <v>0.164561927318573</v>
+        <v>0.2365772873163223</v>
       </c>
     </row>
     <row r="188" spans="1:23">
@@ -13776,10 +13776,10 @@
         <v>0.8662068843841553</v>
       </c>
       <c r="V188" t="n">
-        <v>0.6722632646560669</v>
+        <v>0.5046249628067017</v>
       </c>
       <c r="W188" t="n">
-        <v>0.0376141294836998</v>
+        <v>0.1307414919137955</v>
       </c>
     </row>
     <row r="189" spans="1:23">
@@ -13847,10 +13847,10 @@
         <v>0.8682329654693604</v>
       </c>
       <c r="V189" t="n">
-        <v>0.541418194770813</v>
+        <v>0.5069714784622192</v>
       </c>
       <c r="W189" t="n">
-        <v>0.1068078950047493</v>
+        <v>0.1305098682641983</v>
       </c>
     </row>
     <row r="190" spans="1:23">
@@ -13918,10 +13918,10 @@
         <v>0.8881559371948242</v>
       </c>
       <c r="V190" t="n">
-        <v>0.946087121963501</v>
+        <v>0.5394940376281738</v>
       </c>
       <c r="W190" t="n">
-        <v>0.003356022061780095</v>
+        <v>0.121565118432045</v>
       </c>
     </row>
     <row r="191" spans="1:23">
@@ -13989,10 +13989,10 @@
         <v>0.8926899433135986</v>
       </c>
       <c r="V191" t="n">
-        <v>0.5606344938278198</v>
+        <v>0.8652709126472473</v>
       </c>
       <c r="W191" t="n">
-        <v>0.1102608218789101</v>
+        <v>0.0007518032216466963</v>
       </c>
     </row>
     <row r="192" spans="1:23">
@@ -14060,10 +14060,10 @@
         <v>0.8605639934539795</v>
       </c>
       <c r="V192" t="n">
-        <v>0.5039169788360596</v>
+        <v>0.3973287045955658</v>
       </c>
       <c r="W192" t="n">
-        <v>0.1271970868110657</v>
+        <v>0.214586928486824</v>
       </c>
     </row>
     <row r="193" spans="1:23">
@@ -14131,10 +14131,10 @@
         <v>0.8759949207305908</v>
       </c>
       <c r="V193" t="n">
-        <v>0.7829432487487793</v>
+        <v>0.8808788657188416</v>
       </c>
       <c r="W193" t="n">
-        <v>0.008658614009618759</v>
+        <v>2.385291918471921e-05</v>
       </c>
     </row>
     <row r="194" spans="1:23">
@@ -14202,10 +14202,10 @@
         <v>0.9239978790283203</v>
       </c>
       <c r="V194" t="n">
-        <v>0.3753085136413574</v>
+        <v>0.5148111581802368</v>
       </c>
       <c r="W194" t="n">
-        <v>0.3010600209236145</v>
+        <v>0.1674337685108185</v>
       </c>
     </row>
     <row r="195" spans="1:23">
@@ -14273,10 +14273,10 @@
         <v>0.8740930557250977</v>
       </c>
       <c r="V195" t="n">
-        <v>0.4036473333835602</v>
+        <v>0.8614713549613953</v>
       </c>
       <c r="W195" t="n">
-        <v>0.2213191837072372</v>
+        <v>0.0001593073247931898</v>
       </c>
     </row>
     <row r="196" spans="1:23">
@@ -14344,10 +14344,10 @@
         <v>0.8621790409088135</v>
       </c>
       <c r="V196" t="n">
-        <v>0.4036547243595123</v>
+        <v>0.4964314103126526</v>
       </c>
       <c r="W196" t="n">
-        <v>0.2102445513010025</v>
+        <v>0.1337713301181793</v>
       </c>
     </row>
     <row r="197" spans="1:23">
@@ -14415,10 +14415,10 @@
         <v>0.8700771331787109</v>
       </c>
       <c r="V197" t="n">
-        <v>0.5373688936233521</v>
+        <v>0.4007910788059235</v>
       </c>
       <c r="W197" t="n">
-        <v>0.1106947734951973</v>
+        <v>0.2202294021844864</v>
       </c>
     </row>
     <row r="198" spans="1:23">
@@ -14486,10 +14486,10 @@
         <v>0.9252641201019287</v>
       </c>
       <c r="V198" t="n">
-        <v>0.5041878223419189</v>
+        <v>0.8753277659416199</v>
       </c>
       <c r="W198" t="n">
-        <v>0.1773052513599396</v>
+        <v>0.002493639476597309</v>
       </c>
     </row>
     <row r="199" spans="1:23">
@@ -14557,10 +14557,10 @@
         <v>0.8725690841674805</v>
       </c>
       <c r="V199" t="n">
-        <v>0.6525709629058838</v>
+        <v>0.4030819833278656</v>
       </c>
       <c r="W199" t="n">
-        <v>0.0483991727232933</v>
+        <v>0.2204181402921677</v>
       </c>
     </row>
     <row r="200" spans="1:23">
@@ -14628,10 +14628,10 @@
         <v>0.880234956741333</v>
       </c>
       <c r="V200" t="n">
-        <v>0.4505667388439178</v>
+        <v>0.8793386816978455</v>
       </c>
       <c r="W200" t="n">
-        <v>0.1846147775650024</v>
+        <v>8.033089784476033e-07</v>
       </c>
     </row>
     <row r="201" spans="1:23">
@@ -14699,10 +14699,10 @@
         <v>1.401460886001587</v>
       </c>
       <c r="V201" t="n">
-        <v>0.8078914880752563</v>
+        <v>0.5162749290466309</v>
       </c>
       <c r="W201" t="n">
-        <v>0.3523246347904205</v>
+        <v>0.7835541963577271</v>
       </c>
     </row>
     <row r="202" spans="1:23">
@@ -14770,10 +14770,10 @@
         <v>0.5744049549102783</v>
       </c>
       <c r="V202" t="n">
-        <v>0.5139063596725464</v>
+        <v>0.4028038382530212</v>
       </c>
       <c r="W202" t="n">
-        <v>0.003660080023109913</v>
+        <v>0.02944694273173809</v>
       </c>
     </row>
     <row r="203" spans="1:23">
@@ -14841,10 +14841,10 @@
         <v>0.5393190383911133</v>
       </c>
       <c r="V203" t="n">
-        <v>0.4776211678981781</v>
+        <v>0.8576297760009766</v>
       </c>
       <c r="W203" t="n">
-        <v>0.003806627122685313</v>
+        <v>0.1013217270374298</v>
       </c>
     </row>
     <row r="204" spans="1:23">
@@ -14912,10 +14912,10 @@
         <v>0.5370819568634033</v>
       </c>
       <c r="V204" t="n">
-        <v>0.7834850549697876</v>
+        <v>0.3973085284233093</v>
       </c>
       <c r="W204" t="n">
-        <v>0.0607144869863987</v>
+        <v>0.01953661069273949</v>
       </c>
     </row>
     <row r="205" spans="1:23">
@@ -14983,10 +14983,10 @@
         <v>0.5194170475006104</v>
       </c>
       <c r="V205" t="n">
-        <v>0.375304102897644</v>
+        <v>0.8931095004081726</v>
       </c>
       <c r="W205" t="n">
-        <v>0.0207685399800539</v>
+        <v>0.139646053314209</v>
       </c>
     </row>
     <row r="206" spans="1:23">
@@ -15054,10 +15054,10 @@
         <v>0.5141060352325439</v>
       </c>
       <c r="V206" t="n">
-        <v>0.5769187211990356</v>
+        <v>0.5074951648712158</v>
       </c>
       <c r="W206" t="n">
-        <v>0.003945433534681797</v>
+        <v>4.370360693428665e-05</v>
       </c>
     </row>
     <row r="207" spans="1:23">
@@ -15125,10 +15125,10 @@
         <v>0.5426201820373535</v>
       </c>
       <c r="V207" t="n">
-        <v>0.3753783702850342</v>
+        <v>0.8723660111427307</v>
       </c>
       <c r="W207" t="n">
-        <v>0.02796982415020466</v>
+        <v>0.1087323129177094</v>
       </c>
     </row>
     <row r="208" spans="1:23">
@@ -15196,10 +15196,10 @@
         <v>0.5196869373321533</v>
       </c>
       <c r="V208" t="n">
-        <v>0.8084061145782471</v>
+        <v>0.3994268476963043</v>
       </c>
       <c r="W208" t="n">
-        <v>0.0833587646484375</v>
+        <v>0.0144624887034297</v>
       </c>
     </row>
     <row r="209" spans="1:23">
@@ -15267,10 +15267,10 @@
         <v>0.5132639408111572</v>
       </c>
       <c r="V209" t="n">
-        <v>0.5747835636138916</v>
+        <v>0.4962877929210663</v>
       </c>
       <c r="W209" t="n">
-        <v>0.0037846639752388</v>
+        <v>0.0002881895925384015</v>
       </c>
     </row>
     <row r="210" spans="1:23">
@@ -15338,10 +15338,10 @@
         <v>0.5155079364776611</v>
       </c>
       <c r="V210" t="n">
-        <v>0.8103859424591064</v>
+        <v>0.3992705345153809</v>
       </c>
       <c r="W210" t="n">
-        <v>0.08695303648710251</v>
+        <v>0.01351113338023424</v>
       </c>
     </row>
     <row r="211" spans="1:23">
@@ -15409,10 +15409,10 @@
         <v>0.5219659805297852</v>
       </c>
       <c r="V211" t="n">
-        <v>0.4036741256713867</v>
+        <v>0.5087422132492065</v>
       </c>
       <c r="W211" t="n">
-        <v>0.01399296335875988</v>
+        <v>0.0001748680224409327</v>
       </c>
     </row>
     <row r="212" spans="1:23">
@@ -15480,10 +15480,10 @@
         <v>0.5216031074523926</v>
       </c>
       <c r="V212" t="n">
-        <v>0.5048280954360962</v>
+        <v>0.4024354517459869</v>
       </c>
       <c r="W212" t="n">
-        <v>0.000281401036772877</v>
+        <v>0.01420093048363924</v>
       </c>
     </row>
     <row r="213" spans="1:23">
@@ -15551,10 +15551,10 @@
         <v>0.5533528327941895</v>
       </c>
       <c r="V213" t="n">
-        <v>0.4032191634178162</v>
+        <v>0.5020101070404053</v>
       </c>
       <c r="W213" t="n">
-        <v>0.02254011854529381</v>
+        <v>0.002636075485497713</v>
       </c>
     </row>
     <row r="214" spans="1:23">
@@ -15622,10 +15622,10 @@
         <v>0.5215380191802979</v>
       </c>
       <c r="V214" t="n">
-        <v>0.6548995971679688</v>
+        <v>0.3988556563854218</v>
       </c>
       <c r="W214" t="n">
-        <v>0.01778531074523926</v>
+        <v>0.01505096256732941</v>
       </c>
     </row>
     <row r="215" spans="1:23">
@@ -15693,10 +15693,10 @@
         <v>0.5205159187316895</v>
       </c>
       <c r="V215" t="n">
-        <v>0.4036012589931488</v>
+        <v>0.8789775371551514</v>
       </c>
       <c r="W215" t="n">
-        <v>0.01366903726011515</v>
+        <v>0.1284947246313095</v>
       </c>
     </row>
     <row r="216" spans="1:23">
@@ -15764,10 +15764,10 @@
         <v>0.521075963973999</v>
       </c>
       <c r="V216" t="n">
-        <v>0.8101098537445068</v>
+        <v>0.4097703695297241</v>
       </c>
       <c r="W216" t="n">
-        <v>0.08354058861732483</v>
+        <v>0.01238893531262875</v>
       </c>
     </row>
     <row r="217" spans="1:23">
@@ -15835,10 +15835,10 @@
         <v>0.5170080661773682</v>
       </c>
       <c r="V217" t="n">
-        <v>0.3812652230262756</v>
+        <v>0.3977790474891663</v>
       </c>
       <c r="W217" t="n">
-        <v>0.01842612028121948</v>
+        <v>0.01421555876731873</v>
       </c>
     </row>
     <row r="218" spans="1:23">
@@ -15906,10 +15906,10 @@
         <v>0.5734741687774658</v>
       </c>
       <c r="V218" t="n">
-        <v>0.3757709860801697</v>
+        <v>0.4993035197257996</v>
       </c>
       <c r="W218" t="n">
-        <v>0.03908654674887657</v>
+        <v>0.005501285195350647</v>
       </c>
     </row>
     <row r="219" spans="1:23">
@@ -15977,10 +15977,10 @@
         <v>0.5216031074523926</v>
       </c>
       <c r="V219" t="n">
-        <v>0.782903790473938</v>
+        <v>0.8825188279151917</v>
       </c>
       <c r="W219" t="n">
-        <v>0.06827804446220398</v>
+        <v>0.1302601546049118</v>
       </c>
     </row>
     <row r="220" spans="1:23">
@@ -16048,10 +16048,10 @@
         <v>0.522554874420166</v>
       </c>
       <c r="V220" t="n">
-        <v>0.7820807695388794</v>
+        <v>0.8668228983879089</v>
       </c>
       <c r="W220" t="n">
-        <v>0.06735368818044662</v>
+        <v>0.118520475924015</v>
       </c>
     </row>
     <row r="221" spans="1:23">
@@ -16119,10 +16119,10 @@
         <v>0.5203990936279297</v>
       </c>
       <c r="V221" t="n">
-        <v>0.381181538105011</v>
+        <v>0.4939141273498535</v>
       </c>
       <c r="W221" t="n">
-        <v>0.01938152685761452</v>
+        <v>0.0007014534203335643</v>
       </c>
     </row>
     <row r="222" spans="1:23">
@@ -16190,10 +16190,10 @@
         <v>0.3890118598937988</v>
       </c>
       <c r="V222" t="n">
-        <v>0.8052781820297241</v>
+        <v>0.5012527704238892</v>
       </c>
       <c r="W222" t="n">
-        <v>0.1732776463031769</v>
+        <v>0.01259802188724279</v>
       </c>
     </row>
     <row r="223" spans="1:23">
@@ -16261,10 +16261,10 @@
         <v>0.3902950286865234</v>
       </c>
       <c r="V223" t="n">
-        <v>0.3507875204086304</v>
+        <v>0.8665002584457397</v>
       </c>
       <c r="W223" t="n">
-        <v>0.001560843200422823</v>
+        <v>0.2267714142799377</v>
       </c>
     </row>
     <row r="224" spans="1:23">
@@ -16332,10 +16332,10 @@
         <v>0.4469938278198242</v>
       </c>
       <c r="V224" t="n">
-        <v>0.3761706054210663</v>
+        <v>0.3974804282188416</v>
       </c>
       <c r="W224" t="n">
-        <v>0.005015928763896227</v>
+        <v>0.002451576758176088</v>
       </c>
     </row>
     <row r="225" spans="1:23">
@@ -16403,10 +16403,10 @@
         <v>0.392413854598999</v>
       </c>
       <c r="V225" t="n">
-        <v>0.5416070222854614</v>
+        <v>0.5006322860717773</v>
       </c>
       <c r="W225" t="n">
-        <v>0.02225860208272934</v>
+        <v>0.01171122863888741</v>
       </c>
     </row>
     <row r="226" spans="1:23">
@@ -16474,10 +16474,10 @@
         <v>0.390031099319458</v>
       </c>
       <c r="V226" t="n">
-        <v>0.7829492092132568</v>
+        <v>0.4041736423969269</v>
       </c>
       <c r="W226" t="n">
-        <v>0.1543846428394318</v>
+        <v>0.0002000115200644359</v>
       </c>
     </row>
     <row r="227" spans="1:23">
@@ -16545,10 +16545,10 @@
         <v>0.3930361270904541</v>
       </c>
       <c r="V227" t="n">
-        <v>0.4505521655082703</v>
+        <v>0.4232897758483887</v>
       </c>
       <c r="W227" t="n">
-        <v>0.003308094572275877</v>
+        <v>0.0009152832790277898</v>
       </c>
     </row>
     <row r="228" spans="1:23">
@@ -16616,10 +16616,10 @@
         <v>0.39192795753479</v>
       </c>
       <c r="V228" t="n">
-        <v>0.4775792956352234</v>
+        <v>0.8797782063484192</v>
       </c>
       <c r="W228" t="n">
-        <v>0.007336151786148548</v>
+        <v>0.2379978597164154</v>
       </c>
     </row>
     <row r="229" spans="1:23">
@@ -16687,10 +16687,10 @@
         <v>0.3957130908966064</v>
       </c>
       <c r="V229" t="n">
-        <v>0.6533832550048828</v>
+        <v>0.8666422367095947</v>
       </c>
       <c r="W229" t="n">
-        <v>0.06639391183853149</v>
+        <v>0.2217742651700974</v>
       </c>
     </row>
     <row r="230" spans="1:23">
@@ -16758,10 +16758,10 @@
         <v>0.3933560848236084</v>
       </c>
       <c r="V230" t="n">
-        <v>0.5413551330566406</v>
+        <v>0.4117820262908936</v>
       </c>
       <c r="W230" t="n">
-        <v>0.02190371789038181</v>
+        <v>0.0003395153325982392</v>
       </c>
     </row>
     <row r="231" spans="1:23">
@@ -16829,10 +16829,10 @@
         <v>0.392982006072998</v>
       </c>
       <c r="V231" t="n">
-        <v>0.3756047487258911</v>
+        <v>0.410181999206543</v>
       </c>
       <c r="W231" t="n">
-        <v>0.0003019690630026162</v>
+        <v>0.0002958397672045976</v>
       </c>
     </row>
     <row r="232" spans="1:23">
@@ -16900,10 +16900,10 @@
         <v>0.4005930423736572</v>
       </c>
       <c r="V232" t="n">
-        <v>0.5374541282653809</v>
+        <v>0.5019628405570984</v>
       </c>
       <c r="W232" t="n">
-        <v>0.01873095706105232</v>
+        <v>0.01027583610266447</v>
       </c>
     </row>
     <row r="233" spans="1:23">
@@ -16971,10 +16971,10 @@
         <v>0.3939211368560791</v>
       </c>
       <c r="V233" t="n">
-        <v>0.5373797416687012</v>
+        <v>0.8660191297531128</v>
       </c>
       <c r="W233" t="n">
-        <v>0.02058037184178829</v>
+        <v>0.2228765189647675</v>
       </c>
     </row>
     <row r="234" spans="1:23">
@@ -17042,10 +17042,10 @@
         <v>0.3942689895629883</v>
       </c>
       <c r="V234" t="n">
-        <v>0.4662189185619354</v>
+        <v>0.4020658731460571</v>
       </c>
       <c r="W234" t="n">
-        <v>0.00517679238691926</v>
+        <v>6.079139348003082e-05</v>
       </c>
     </row>
     <row r="235" spans="1:23">
@@ -17113,10 +17113,10 @@
         <v>0.3959071636199951</v>
       </c>
       <c r="V235" t="n">
-        <v>0.5031870007514954</v>
+        <v>0.4239339232444763</v>
       </c>
       <c r="W235" t="n">
-        <v>0.01150896307080984</v>
+        <v>0.0007854992290958762</v>
       </c>
     </row>
     <row r="236" spans="1:23">
@@ -17184,10 +17184,10 @@
         <v>0.3949201107025146</v>
       </c>
       <c r="V236" t="n">
-        <v>0.4085472524166107</v>
+        <v>0.5023443698883057</v>
       </c>
       <c r="W236" t="n">
-        <v>0.0001856989983934909</v>
+        <v>0.01153997145593166</v>
       </c>
     </row>
     <row r="237" spans="1:23">
@@ -17255,10 +17255,10 @@
         <v>0.3929429054260254</v>
       </c>
       <c r="V237" t="n">
-        <v>0.514564037322998</v>
+        <v>0.5161182880401611</v>
       </c>
       <c r="W237" t="n">
-        <v>0.01479170005768538</v>
+        <v>0.01517217513173819</v>
       </c>
     </row>
     <row r="238" spans="1:23">
@@ -17326,10 +17326,10 @@
         <v>0.3893389701843262</v>
       </c>
       <c r="V238" t="n">
-        <v>0.6834505796432495</v>
+        <v>0.4245631694793701</v>
       </c>
       <c r="W238" t="n">
-        <v>0.08650163561105728</v>
+        <v>0.00124074425548315</v>
       </c>
     </row>
     <row r="239" spans="1:23">
@@ -17397,10 +17397,10 @@
         <v>0.3937878608703613</v>
       </c>
       <c r="V239" t="n">
-        <v>0.3507681787014008</v>
+        <v>0.8746019005775452</v>
       </c>
       <c r="W239" t="n">
-        <v>0.001850693020969629</v>
+        <v>0.2311821430921555</v>
       </c>
     </row>
     <row r="240" spans="1:23">
@@ -17468,10 +17468,10 @@
         <v>0.3973958492279053</v>
       </c>
       <c r="V240" t="n">
-        <v>0.7837903499603271</v>
+        <v>0.4020281136035919</v>
       </c>
       <c r="W240" t="n">
-        <v>0.1493007093667984</v>
+        <v>2.145787402696442e-05</v>
       </c>
     </row>
     <row r="241" spans="1:23">
@@ -17539,10 +17539,10 @@
         <v>0.3936131000518799</v>
       </c>
       <c r="V241" t="n">
-        <v>0.3524288833141327</v>
+        <v>0.5159845352172852</v>
       </c>
       <c r="W241" t="n">
-        <v>0.001696139690466225</v>
+        <v>0.01497476827353239</v>
       </c>
     </row>
     <row r="242" spans="1:23">
@@ -17610,10 +17610,10 @@
         <v>0.981956958770752</v>
       </c>
       <c r="V242" t="n">
-        <v>0.5342714190483093</v>
+        <v>0.8985173106193542</v>
       </c>
       <c r="W242" t="n">
-        <v>0.2004223465919495</v>
+        <v>0.006962175015360117</v>
       </c>
     </row>
     <row r="243" spans="1:23">
@@ -17681,10 +17681,10 @@
         <v>0.910973072052002</v>
       </c>
       <c r="V243" t="n">
-        <v>0.3507879376411438</v>
+        <v>0.8658235669136047</v>
       </c>
       <c r="W243" t="n">
-        <v>0.3138073980808258</v>
+        <v>0.002038477919995785</v>
       </c>
     </row>
     <row r="244" spans="1:23">
@@ -17752,10 +17752,10 @@
         <v>0.8742811679840088</v>
       </c>
       <c r="V244" t="n">
-        <v>0.6972826719284058</v>
+        <v>0.867487370967865</v>
       </c>
       <c r="W244" t="n">
-        <v>0.0313284657895565</v>
+        <v>4.615567740984261e-05</v>
       </c>
     </row>
     <row r="245" spans="1:23">
@@ -17823,10 +17823,10 @@
         <v>0.8757209777832031</v>
       </c>
       <c r="V245" t="n">
-        <v>0.3869305849075317</v>
+        <v>0.8932452797889709</v>
       </c>
       <c r="W245" t="n">
-        <v>0.2389160543680191</v>
+        <v>0.0003071011742576957</v>
       </c>
     </row>
     <row r="246" spans="1:23">
@@ -17894,10 +17894,10 @@
         <v>0.9272799491882324</v>
       </c>
       <c r="V246" t="n">
-        <v>0.6549818515777588</v>
+        <v>0.4325685501098633</v>
       </c>
       <c r="W246" t="n">
-        <v>0.07414625585079193</v>
+        <v>0.24473936855793</v>
       </c>
     </row>
     <row r="247" spans="1:23">
@@ -17965,10 +17965,10 @@
         <v>0.8690290451049805</v>
       </c>
       <c r="V247" t="n">
-        <v>0.8205782175064087</v>
+        <v>0.5137211680412292</v>
       </c>
       <c r="W247" t="n">
-        <v>0.002347482601180673</v>
+        <v>0.1262436807155609</v>
       </c>
     </row>
     <row r="248" spans="1:23">
@@ -18036,10 +18036,10 @@
         <v>0.8619790077209473</v>
       </c>
       <c r="V248" t="n">
-        <v>0.4506650269031525</v>
+        <v>0.3974820673465729</v>
       </c>
       <c r="W248" t="n">
-        <v>0.1691791862249374</v>
+        <v>0.2157574146986008</v>
       </c>
     </row>
     <row r="249" spans="1:23">
@@ -18107,10 +18107,10 @@
         <v>0.8766250610351562</v>
       </c>
       <c r="V249" t="n">
-        <v>0.6825381517410278</v>
+        <v>0.5085784196853638</v>
       </c>
       <c r="W249" t="n">
-        <v>0.03766972944140434</v>
+        <v>0.1354583352804184</v>
       </c>
     </row>
     <row r="250" spans="1:23">
@@ -18178,10 +18178,10 @@
         <v>0.926807165145874</v>
       </c>
       <c r="V250" t="n">
-        <v>0.3706969916820526</v>
+        <v>0.4903892278671265</v>
       </c>
       <c r="W250" t="n">
-        <v>0.3092584908008575</v>
+        <v>0.1904606223106384</v>
       </c>
     </row>
     <row r="251" spans="1:23">
@@ -18249,10 +18249,10 @@
         <v>0.8749849796295166</v>
       </c>
       <c r="V251" t="n">
-        <v>0.6420724391937256</v>
+        <v>0.4236052334308624</v>
       </c>
       <c r="W251" t="n">
-        <v>0.05424825102090836</v>
+        <v>0.2037436813116074</v>
       </c>
     </row>
     <row r="252" spans="1:23">
@@ -18320,10 +18320,10 @@
         <v>0.873927116394043</v>
       </c>
       <c r="V252" t="n">
-        <v>0.5413862466812134</v>
+        <v>0.8666719794273376</v>
       </c>
       <c r="W252" t="n">
-        <v>0.1105834320187569</v>
+        <v>5.263701314106584e-05</v>
       </c>
     </row>
     <row r="253" spans="1:23">
@@ -18391,10 +18391,10 @@
         <v>0.9045891761779785</v>
       </c>
       <c r="V253" t="n">
-        <v>0.3502950370311737</v>
+        <v>0.3973102569580078</v>
       </c>
       <c r="W253" t="n">
-        <v>0.3072419464588165</v>
+        <v>0.257331907749176</v>
       </c>
     </row>
     <row r="254" spans="1:23">
@@ -18462,10 +18462,10 @@
         <v>0.9227340221405029</v>
       </c>
       <c r="V254" t="n">
-        <v>0.4035959541797638</v>
+        <v>0.8661559820175171</v>
       </c>
       <c r="W254" t="n">
-        <v>0.2695043683052063</v>
+        <v>0.003201074665412307</v>
       </c>
     </row>
     <row r="255" spans="1:23">
@@ -18533,10 +18533,10 @@
         <v>0.8764941692352295</v>
       </c>
       <c r="V255" t="n">
-        <v>0.4034280776977539</v>
+        <v>0.4245372712612152</v>
       </c>
       <c r="W255" t="n">
-        <v>0.2237915247678757</v>
+        <v>0.2042650431394577</v>
       </c>
     </row>
     <row r="256" spans="1:23">
@@ -18604,10 +18604,10 @@
         <v>0.9018480777740479</v>
       </c>
       <c r="V256" t="n">
-        <v>0.944080114364624</v>
+        <v>0.872252345085144</v>
       </c>
       <c r="W256" t="n">
-        <v>0.001783544896170497</v>
+        <v>0.0008759073680266738</v>
       </c>
     </row>
     <row r="257" spans="1:23">
@@ -18675,10 +18675,10 @@
         <v>0.8710629940032959</v>
       </c>
       <c r="V257" t="n">
-        <v>0.3507823050022125</v>
+        <v>0.5124102830886841</v>
       </c>
       <c r="W257" t="n">
-        <v>0.2706920206546783</v>
+        <v>0.1286317706108093</v>
       </c>
     </row>
     <row r="258" spans="1:23">
@@ -18746,10 +18746,10 @@
         <v>0.9148938655853271</v>
       </c>
       <c r="V258" t="n">
-        <v>0.6432181596755981</v>
+        <v>0.8597882986068726</v>
       </c>
       <c r="W258" t="n">
-        <v>0.07380768656730652</v>
+        <v>0.003036623587831855</v>
       </c>
     </row>
     <row r="259" spans="1:23">
@@ -18817,10 +18817,10 @@
         <v>0.8792588710784912</v>
       </c>
       <c r="V259" t="n">
-        <v>0.5027711391448975</v>
+        <v>0.8742318749427795</v>
       </c>
       <c r="W259" t="n">
-        <v>0.1417430192232132</v>
+        <v>2.527069045754615e-05</v>
       </c>
     </row>
     <row r="260" spans="1:23">
@@ -18888,10 +18888,10 @@
         <v>0.8634829521179199</v>
       </c>
       <c r="V260" t="n">
-        <v>0.4036241471767426</v>
+        <v>0.4998422861099243</v>
       </c>
       <c r="W260" t="n">
-        <v>0.2114701271057129</v>
+        <v>0.1322345286607742</v>
       </c>
     </row>
     <row r="261" spans="1:23">
@@ -18959,10 +18959,10 @@
         <v>0.8691620826721191</v>
       </c>
       <c r="V261" t="n">
-        <v>0.514431357383728</v>
+        <v>0.5010461807250977</v>
       </c>
       <c r="W261" t="n">
-        <v>0.1258338838815689</v>
+        <v>0.1355093121528625</v>
       </c>
     </row>
     <row r="262" spans="1:23">
@@ -19030,10 +19030,10 @@
         <v>0.5913510322570801</v>
       </c>
       <c r="V262" t="n">
-        <v>0.3507795631885529</v>
+        <v>0.3973006010055542</v>
       </c>
       <c r="W262" t="n">
-        <v>0.05787463113665581</v>
+        <v>0.03765556961297989</v>
       </c>
     </row>
     <row r="263" spans="1:23">
@@ -19101,10 +19101,10 @@
         <v>0.5278339385986328</v>
       </c>
       <c r="V263" t="n">
-        <v>0.5143253803253174</v>
+        <v>0.8727063536643982</v>
       </c>
       <c r="W263" t="n">
-        <v>0.0001824811479309574</v>
+        <v>0.1189369857311249</v>
       </c>
     </row>
     <row r="264" spans="1:23">
@@ -19172,10 +19172,10 @@
         <v>0.5258190631866455</v>
       </c>
       <c r="V264" t="n">
-        <v>0.6904977560043335</v>
+        <v>0.8804594874382019</v>
       </c>
       <c r="W264" t="n">
-        <v>0.02711907215416431</v>
+        <v>0.1257698237895966</v>
       </c>
     </row>
     <row r="265" spans="1:23">
@@ -19243,10 +19243,10 @@
         <v>0.5403730869293213</v>
       </c>
       <c r="V265" t="n">
-        <v>0.3523913621902466</v>
+        <v>0.4951093792915344</v>
       </c>
       <c r="W265" t="n">
-        <v>0.03533712774515152</v>
+        <v>0.002048803260549903</v>
       </c>
     </row>
     <row r="266" spans="1:23">
@@ -19314,10 +19314,10 @@
         <v>0.5224969387054443</v>
       </c>
       <c r="V266" t="n">
-        <v>0.4036880433559418</v>
+        <v>0.5249305963516235</v>
       </c>
       <c r="W266" t="n">
-        <v>0.01411555334925652</v>
+        <v>5.922689524595626e-06</v>
       </c>
     </row>
     <row r="267" spans="1:23">
@@ -19385,10 +19385,10 @@
         <v>0.5204629898071289</v>
       </c>
       <c r="V267" t="n">
-        <v>0.4036816954612732</v>
+        <v>0.8669320940971375</v>
       </c>
       <c r="W267" t="n">
-        <v>0.01363787055015564</v>
+        <v>0.1200408414006233</v>
       </c>
     </row>
     <row r="268" spans="1:23">
@@ -19456,10 +19456,10 @@
         <v>0.5326411724090576</v>
       </c>
       <c r="V268" t="n">
-        <v>0.5019052028656006</v>
+        <v>0.5147370100021362</v>
       </c>
       <c r="W268" t="n">
-        <v>0.0009446998010389507</v>
+        <v>0.000320559018291533</v>
       </c>
     </row>
     <row r="269" spans="1:23">
@@ -19527,10 +19527,10 @@
         <v>0.526104211807251</v>
       </c>
       <c r="V269" t="n">
-        <v>0.3504441678524017</v>
+        <v>0.425530731678009</v>
       </c>
       <c r="W269" t="n">
-        <v>0.03085645101964474</v>
+        <v>0.01011502463370562</v>
       </c>
     </row>
     <row r="270" spans="1:23">
@@ -19598,10 +19598,10 @@
         <v>0.5166599750518799</v>
       </c>
       <c r="V270" t="n">
-        <v>0.3707364797592163</v>
+        <v>0.3973138928413391</v>
       </c>
       <c r="W270" t="n">
-        <v>0.02129366621375084</v>
+        <v>0.01424348726868629</v>
       </c>
     </row>
     <row r="271" spans="1:23">
@@ -19669,10 +19669,10 @@
         <v>0.5227890014648438</v>
       </c>
       <c r="V271" t="n">
-        <v>0.6567727327346802</v>
+        <v>0.5056580901145935</v>
       </c>
       <c r="W271" t="n">
-        <v>0.01795163936913013</v>
+        <v>0.0002934681251645088</v>
       </c>
     </row>
     <row r="272" spans="1:23">
@@ -19740,10 +19740,10 @@
         <v>0.5425238609313965</v>
       </c>
       <c r="V272" t="n">
-        <v>0.4506978392601013</v>
+        <v>0.4117628335952759</v>
       </c>
       <c r="W272" t="n">
-        <v>0.00843201857060194</v>
+        <v>0.01709844544529915</v>
       </c>
     </row>
     <row r="273" spans="1:23">
@@ -19811,10 +19811,10 @@
         <v>0.5768120288848877</v>
       </c>
       <c r="V273" t="n">
-        <v>0.5619301795959473</v>
+        <v>0.8685581088066101</v>
       </c>
       <c r="W273" t="n">
-        <v>0.0002214694395661354</v>
+        <v>0.08511577546596527</v>
       </c>
     </row>
     <row r="274" spans="1:23">
@@ -19882,10 +19882,10 @@
         <v>0.5250701904296875</v>
       </c>
       <c r="V274" t="n">
-        <v>0.5141499042510986</v>
+        <v>0.8731042146682739</v>
       </c>
       <c r="W274" t="n">
-        <v>0.0001192526469822042</v>
+        <v>0.1211276799440384</v>
       </c>
     </row>
     <row r="275" spans="1:23">
@@ -19953,10 +19953,10 @@
         <v>0.5311338901519775</v>
       </c>
       <c r="V275" t="n">
-        <v>0.5145288705825806</v>
+        <v>0.4036194086074829</v>
       </c>
       <c r="W275" t="n">
-        <v>0.0002757266629487276</v>
+        <v>0.01625994220376015</v>
       </c>
     </row>
     <row r="276" spans="1:23">
@@ -20024,10 +20024,10 @@
         <v>0.5213170051574707</v>
       </c>
       <c r="V276" t="n">
-        <v>0.3808321058750153</v>
+        <v>0.4246655702590942</v>
       </c>
       <c r="W276" t="n">
-        <v>0.01973600685596466</v>
+        <v>0.009341499768197536</v>
       </c>
     </row>
     <row r="277" spans="1:23">
@@ -20095,10 +20095,10 @@
         <v>0.5218639373779297</v>
       </c>
       <c r="V277" t="n">
-        <v>0.5615758895874023</v>
+        <v>0.4227932691574097</v>
       </c>
       <c r="W277" t="n">
-        <v>0.00157703913282603</v>
+        <v>0.00981499720364809</v>
       </c>
     </row>
     <row r="278" spans="1:23">
@@ -20166,10 +20166,10 @@
         <v>0.5229361057281494</v>
       </c>
       <c r="V278" t="n">
-        <v>0.5140033960342407</v>
+        <v>0.3972463309764862</v>
       </c>
       <c r="W278" t="n">
-        <v>7.979330257512629e-05</v>
+        <v>0.01579791866242886</v>
       </c>
     </row>
     <row r="279" spans="1:23">
@@ -20237,10 +20237,10 @@
         <v>0.522878885269165</v>
       </c>
       <c r="V279" t="n">
-        <v>0.4781670570373535</v>
+        <v>0.4236266613006592</v>
       </c>
       <c r="W279" t="n">
-        <v>0.001999147469177842</v>
+        <v>0.009851003997027874</v>
       </c>
     </row>
     <row r="280" spans="1:23">
@@ -20308,10 +20308,10 @@
         <v>0.5235879421234131</v>
       </c>
       <c r="V280" t="n">
-        <v>0.4037072956562042</v>
+        <v>0.3988547623157501</v>
       </c>
       <c r="W280" t="n">
-        <v>0.0143713690340519</v>
+        <v>0.01555836573243141</v>
       </c>
     </row>
     <row r="281" spans="1:23">
@@ -20379,10 +20379,10 @@
         <v>0.5196161270141602</v>
       </c>
       <c r="V281" t="n">
-        <v>0.6413520574569702</v>
+        <v>0.4019704759120941</v>
       </c>
       <c r="W281" t="n">
-        <v>0.01481963694095612</v>
+        <v>0.0138404993340373</v>
       </c>
     </row>
     <row r="282" spans="1:23">
@@ -20450,10 +20450,10 @@
         <v>0.4017729759216309</v>
       </c>
       <c r="V282" t="n">
-        <v>0.514474630355835</v>
+        <v>0.5072741508483887</v>
       </c>
       <c r="W282" t="n">
-        <v>0.0127016631886363</v>
+        <v>0.01113049779087305</v>
       </c>
     </row>
     <row r="283" spans="1:23">
@@ -20521,10 +20521,10 @@
         <v>0.398914098739624</v>
       </c>
       <c r="V283" t="n">
-        <v>0.3750417828559875</v>
+        <v>0.5038614273071289</v>
       </c>
       <c r="W283" t="n">
-        <v>0.0005698874592781067</v>
+        <v>0.01101394183933735</v>
       </c>
     </row>
     <row r="284" spans="1:23">
@@ -20592,10 +20592,10 @@
         <v>0.4474029541015625</v>
       </c>
       <c r="V284" t="n">
-        <v>0.6081980466842651</v>
+        <v>0.8858795166015625</v>
       </c>
       <c r="W284" t="n">
-        <v>0.02585506252944469</v>
+        <v>0.1922616958618164</v>
       </c>
     </row>
     <row r="285" spans="1:23">
@@ -20663,10 +20663,10 @@
         <v>0.39711594581604</v>
       </c>
       <c r="V285" t="n">
-        <v>0.8098763227462769</v>
+        <v>0.5153338313102722</v>
       </c>
       <c r="W285" t="n">
-        <v>0.1703711301088333</v>
+        <v>0.01397546846419573</v>
       </c>
     </row>
     <row r="286" spans="1:23">
@@ -20734,10 +20734,10 @@
         <v>0.3987820148468018</v>
       </c>
       <c r="V286" t="n">
-        <v>0.5153118371963501</v>
+        <v>0.4112747609615326</v>
       </c>
       <c r="W286" t="n">
-        <v>0.01357919909060001</v>
+        <v>0.0001560687087476254</v>
       </c>
     </row>
     <row r="287" spans="1:23">
@@ -20805,10 +20805,10 @@
         <v>0.3974170684814453</v>
       </c>
       <c r="V287" t="n">
-        <v>0.6002374887466431</v>
+        <v>0.8799683451652527</v>
       </c>
       <c r="W287" t="n">
-        <v>0.04113612323999405</v>
+        <v>0.2328557372093201</v>
       </c>
     </row>
     <row r="288" spans="1:23">
@@ -20876,10 +20876,10 @@
         <v>0.3986580371856689</v>
       </c>
       <c r="V288" t="n">
-        <v>0.4777990877628326</v>
+        <v>0.5161280632019043</v>
       </c>
       <c r="W288" t="n">
-        <v>0.006263305898755789</v>
+        <v>0.01379920728504658</v>
       </c>
     </row>
     <row r="289" spans="1:23">
@@ -20947,10 +20947,10 @@
         <v>0.4135520458221436</v>
       </c>
       <c r="V289" t="n">
-        <v>0.7839112281799316</v>
+        <v>0.8791350722312927</v>
       </c>
       <c r="W289" t="n">
-        <v>0.1371659189462662</v>
+        <v>0.2167675495147705</v>
       </c>
     </row>
     <row r="290" spans="1:23">
@@ -21018,10 +21018,10 @@
         <v>0.3954870700836182</v>
       </c>
       <c r="V290" t="n">
-        <v>0.9478923082351685</v>
+        <v>0.5001649856567383</v>
       </c>
       <c r="W290" t="n">
-        <v>0.3051515519618988</v>
+        <v>0.01095746643841267</v>
       </c>
     </row>
     <row r="291" spans="1:23">
@@ -21089,10 +21089,10 @@
         <v>0.3995430469512939</v>
       </c>
       <c r="V291" t="n">
-        <v>0.3507875502109528</v>
+        <v>0.8656354546546936</v>
       </c>
       <c r="W291" t="n">
-        <v>0.002377098426222801</v>
+        <v>0.2172421365976334</v>
       </c>
     </row>
     <row r="292" spans="1:23">
@@ -21160,10 +21160,10 @@
         <v>0.4001998901367188</v>
       </c>
       <c r="V292" t="n">
-        <v>0.6413167715072632</v>
+        <v>0.8730673789978027</v>
       </c>
       <c r="W292" t="n">
-        <v>0.05813734978437424</v>
+        <v>0.2236036658287048</v>
       </c>
     </row>
     <row r="293" spans="1:23">
@@ -21231,10 +21231,10 @@
         <v>0.3985741138458252</v>
       </c>
       <c r="V293" t="n">
-        <v>0.6410635709762573</v>
+        <v>0.4234246015548706</v>
       </c>
       <c r="W293" t="n">
-        <v>0.05880113691091537</v>
+        <v>0.0006175467278808355</v>
       </c>
     </row>
     <row r="294" spans="1:23">
@@ -21302,10 +21302,10 @@
         <v>0.3945510387420654</v>
       </c>
       <c r="V294" t="n">
-        <v>0.5346115231513977</v>
+        <v>0.9001638293266296</v>
       </c>
       <c r="W294" t="n">
-        <v>0.01961693912744522</v>
+        <v>0.255644291639328</v>
       </c>
     </row>
     <row r="295" spans="1:23">
@@ -21373,10 +21373,10 @@
         <v>0.403709888458252</v>
       </c>
       <c r="V295" t="n">
-        <v>0.5034441351890564</v>
+        <v>0.4031795263290405</v>
       </c>
       <c r="W295" t="n">
-        <v>0.009946919977664948</v>
+        <v>2.812839738908224e-07</v>
       </c>
     </row>
     <row r="296" spans="1:23">
@@ -21444,10 +21444,10 @@
         <v>0.3948919773101807</v>
       </c>
       <c r="V296" t="n">
-        <v>0.6082247495651245</v>
+        <v>0.4246218800544739</v>
       </c>
       <c r="W296" t="n">
-        <v>0.04551087319850922</v>
+        <v>0.0008838670910336077</v>
       </c>
     </row>
     <row r="297" spans="1:23">
@@ -21515,10 +21515,10 @@
         <v>0.4047031402587891</v>
       </c>
       <c r="V297" t="n">
-        <v>0.5136516690254211</v>
+        <v>0.5028177499771118</v>
       </c>
       <c r="W297" t="n">
-        <v>0.01186978165060282</v>
+        <v>0.009626477025449276</v>
       </c>
     </row>
     <row r="298" spans="1:23">
@@ -21586,10 +21586,10 @@
         <v>0.39634108543396</v>
       </c>
       <c r="V298" t="n">
-        <v>0.3507724404335022</v>
+        <v>0.87259441614151</v>
       </c>
       <c r="W298" t="n">
-        <v>0.002076501492410898</v>
+        <v>0.2268172353506088</v>
       </c>
     </row>
     <row r="299" spans="1:23">
@@ -21657,10 +21657,10 @@
         <v>0.3985579013824463</v>
       </c>
       <c r="V299" t="n">
-        <v>0.350784033536911</v>
+        <v>0.4032582640647888</v>
       </c>
       <c r="W299" t="n">
-        <v>0.002282342407852411</v>
+        <v>2.20934089156799e-05</v>
       </c>
     </row>
     <row r="300" spans="1:23">
@@ -21728,10 +21728,10 @@
         <v>0.3948500156402588</v>
       </c>
       <c r="V300" t="n">
-        <v>0.6825827360153198</v>
+        <v>0.8639802932739258</v>
       </c>
       <c r="W300" t="n">
-        <v>0.08279012143611908</v>
+        <v>0.2200832217931747</v>
       </c>
     </row>
     <row r="301" spans="1:23">
@@ -21799,10 +21799,10 @@
         <v>0.3982090950012207</v>
       </c>
       <c r="V301" t="n">
-        <v>0.7827135324478149</v>
+        <v>0.499291330575943</v>
       </c>
       <c r="W301" t="n">
-        <v>0.1478436589241028</v>
+        <v>0.01021761819720268</v>
       </c>
     </row>
     <row r="302" spans="1:23">
